--- a/7.Print-Backlog/Sprint-3.xlsx
+++ b/7.Print-Backlog/Sprint-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
   <si>
     <t>No</t>
   </si>
@@ -87,6 +87,93 @@
   <si>
     <t xml:space="preserve">Answer
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to access to the website by my account so that I can use the website.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I want to logout system so that I can stop using website when I click on Logout button and I can login later.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to click on play button so that I can find game
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to see game information so that I can know which group i belong, who my play is, how much time i have to play, and how many points i have achieved.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to see the result so that I can know how many points i have achieved, which team wins.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to select key word so that I can guess and get point easier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to explain so that my teammate can guess the key word easier.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to answer/guess the key word so that I can get the point for my team when my answer is right.
+</t>
+  </si>
+  <si>
+    <t>Code back-end for Login facebook</t>
+  </si>
+  <si>
+    <t>Code back-end for Logout facebook</t>
+  </si>
+  <si>
+    <t>Middleware checking status acccount</t>
+  </si>
+  <si>
+    <t>Code back-end connect 4 players in room game</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code back-end time waiting </t>
+  </si>
+  <si>
+    <t>Code back-end random word</t>
+  </si>
+  <si>
+    <t>Move random word from server to 4 client in room</t>
+  </si>
+  <si>
+    <t>Render name of 4 Players</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Code front-end display words </t>
+  </si>
+  <si>
+    <t>Render suggest for players</t>
+  </si>
+  <si>
+    <t>Code back-end sugest words</t>
+  </si>
+  <si>
+    <t>Count scores for players have correct answer</t>
+  </si>
+  <si>
+    <t>Code back-end Chat from client to server</t>
+  </si>
+  <si>
+    <t>Code back-end Chat from server to client</t>
+  </si>
+  <si>
+    <t>Render message to client</t>
+  </si>
+  <si>
+    <t>Render system message</t>
   </si>
 </sst>
 </file>
@@ -274,7 +361,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -379,7 +466,22 @@
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -387,18 +489,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,11 +850,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="201737728"/>
-        <c:axId val="201739264"/>
+        <c:axId val="201803264"/>
+        <c:axId val="201804800"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="201737728"/>
+        <c:axId val="201803264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -774,14 +864,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201739264"/>
+        <c:crossAx val="201804800"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="201739264"/>
+        <c:axId val="201804800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -792,7 +882,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="201737728"/>
+        <c:crossAx val="201803264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1145,10 +1235,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG39"/>
+  <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B28"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1284,10 +1374,12 @@
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="26"/>
+      <c r="B2" s="40" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>30</v>
+      </c>
       <c r="D2" s="25"/>
       <c r="E2" s="18"/>
       <c r="F2" s="20">
@@ -1379,8 +1471,10 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="26"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="26" t="s">
+        <v>32</v>
+      </c>
       <c r="D3" s="25"/>
       <c r="E3" s="31"/>
       <c r="F3" s="20">
@@ -1472,7 +1566,7 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="26"/>
       <c r="D4" s="25"/>
       <c r="E4" s="31"/>
@@ -1565,10 +1659,12 @@
       <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="13"/>
+      <c r="B5" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>31</v>
+      </c>
       <c r="D5" s="7"/>
       <c r="E5" s="24"/>
       <c r="F5" s="20">
@@ -1660,7 +1756,7 @@
       <c r="A6" s="23">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="26"/>
       <c r="D6" s="25"/>
       <c r="E6" s="31"/>
@@ -1753,7 +1849,7 @@
       <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="13"/>
       <c r="D7" s="27"/>
       <c r="E7" s="24"/>
@@ -1846,10 +1942,12 @@
       <c r="A8" s="23">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="26"/>
+      <c r="B8" s="40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="D8" s="27"/>
       <c r="E8" s="24"/>
       <c r="F8" s="20">
@@ -1941,8 +2039,10 @@
       <c r="A9" s="23">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="42"/>
+      <c r="C9" s="26" t="s">
+        <v>34</v>
+      </c>
       <c r="D9" s="25"/>
       <c r="E9" s="31"/>
       <c r="F9" s="20">
@@ -2030,294 +2130,244 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+    <row r="10" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="42"/>
+      <c r="C10" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="20"/>
+      <c r="P10" s="20"/>
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="20"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="20"/>
+      <c r="X10" s="20"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="20"/>
+      <c r="AB10" s="20"/>
+      <c r="AC10" s="20"/>
+      <c r="AD10" s="20"/>
+      <c r="AE10" s="20"/>
+      <c r="AF10" s="20"/>
+      <c r="AG10" s="20"/>
+    </row>
+    <row r="11" spans="1:33" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="20">
-        <v>0</v>
-      </c>
-      <c r="G10" s="20">
-        <v>0</v>
-      </c>
-      <c r="H10" s="20">
-        <v>0</v>
-      </c>
-      <c r="I10" s="20">
-        <v>0</v>
-      </c>
-      <c r="J10" s="20">
-        <v>0</v>
-      </c>
-      <c r="K10" s="20">
-        <v>0</v>
-      </c>
-      <c r="L10" s="20">
-        <v>0</v>
-      </c>
-      <c r="M10" s="20">
-        <v>0</v>
-      </c>
-      <c r="N10" s="20">
-        <v>0</v>
-      </c>
-      <c r="O10" s="20">
-        <v>0</v>
-      </c>
-      <c r="P10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="20">
-        <v>0</v>
-      </c>
-      <c r="R10" s="20">
-        <v>0</v>
-      </c>
-      <c r="S10" s="20">
-        <v>0</v>
-      </c>
-      <c r="T10" s="20">
-        <v>0</v>
-      </c>
-      <c r="U10" s="20">
-        <v>0</v>
-      </c>
-      <c r="V10" s="20">
-        <v>0</v>
-      </c>
-      <c r="W10" s="20">
-        <v>0</v>
-      </c>
-      <c r="X10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF10" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="20">
+      <c r="B11" s="43"/>
+      <c r="C11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="20">
+        <v>0</v>
+      </c>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
+        <v>0</v>
+      </c>
+      <c r="I11" s="20">
+        <v>0</v>
+      </c>
+      <c r="J11" s="20">
+        <v>0</v>
+      </c>
+      <c r="K11" s="20">
+        <v>0</v>
+      </c>
+      <c r="L11" s="20">
+        <v>0</v>
+      </c>
+      <c r="M11" s="20">
+        <v>0</v>
+      </c>
+      <c r="N11" s="20">
+        <v>0</v>
+      </c>
+      <c r="O11" s="20">
+        <v>0</v>
+      </c>
+      <c r="P11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="20">
+        <v>0</v>
+      </c>
+      <c r="R11" s="20">
+        <v>0</v>
+      </c>
+      <c r="S11" s="20">
+        <v>0</v>
+      </c>
+      <c r="T11" s="20">
+        <v>0</v>
+      </c>
+      <c r="U11" s="20">
+        <v>0</v>
+      </c>
+      <c r="V11" s="20">
+        <v>0</v>
+      </c>
+      <c r="W11" s="20">
+        <v>0</v>
+      </c>
+      <c r="X11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+    <row r="12" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="20">
-        <v>0</v>
-      </c>
-      <c r="G11" s="20">
-        <v>0</v>
-      </c>
-      <c r="H11" s="20">
-        <v>0</v>
-      </c>
-      <c r="I11" s="20">
-        <v>0</v>
-      </c>
-      <c r="J11" s="20">
-        <v>0</v>
-      </c>
-      <c r="K11" s="20">
-        <v>0</v>
-      </c>
-      <c r="L11" s="20">
-        <v>0</v>
-      </c>
-      <c r="M11" s="20">
-        <v>0</v>
-      </c>
-      <c r="N11" s="20">
-        <v>0</v>
-      </c>
-      <c r="O11" s="20">
-        <v>0</v>
-      </c>
-      <c r="P11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="20">
-        <v>0</v>
-      </c>
-      <c r="R11" s="20">
-        <v>0</v>
-      </c>
-      <c r="S11" s="20">
-        <v>0</v>
-      </c>
-      <c r="T11" s="20">
-        <v>0</v>
-      </c>
-      <c r="U11" s="20">
-        <v>0</v>
-      </c>
-      <c r="V11" s="20">
-        <v>0</v>
-      </c>
-      <c r="W11" s="20">
-        <v>0</v>
-      </c>
-      <c r="X11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF11" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG11" s="20">
+      <c r="B12" s="40" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="J12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="20">
+        <v>0</v>
+      </c>
+      <c r="L12" s="20">
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0</v>
+      </c>
+      <c r="S12" s="20">
+        <v>0</v>
+      </c>
+      <c r="T12" s="20">
+        <v>0</v>
+      </c>
+      <c r="U12" s="20">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
+    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <v>0</v>
-      </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
-        <v>0</v>
-      </c>
-      <c r="X12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>12</v>
-      </c>
-      <c r="B13" s="38"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="8"/>
+      <c r="B13" s="42"/>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="7"/>
       <c r="E13" s="24"/>
       <c r="F13" s="20">
         <v>0</v>
@@ -2404,108 +2454,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
-        <v>13</v>
-      </c>
-      <c r="B14" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14" s="10"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="20">
-        <v>0</v>
-      </c>
-      <c r="G14" s="20">
-        <v>0</v>
-      </c>
-      <c r="H14" s="20">
-        <v>0</v>
-      </c>
-      <c r="I14" s="20">
-        <v>0</v>
-      </c>
-      <c r="J14" s="20">
-        <v>0</v>
-      </c>
-      <c r="K14" s="20">
-        <v>0</v>
-      </c>
-      <c r="L14" s="20">
-        <v>0</v>
-      </c>
-      <c r="M14" s="20">
-        <v>0</v>
-      </c>
-      <c r="N14" s="20">
-        <v>0</v>
-      </c>
-      <c r="O14" s="20">
-        <v>0</v>
-      </c>
-      <c r="P14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="20">
-        <v>0</v>
-      </c>
-      <c r="R14" s="20">
-        <v>0</v>
-      </c>
-      <c r="S14" s="20">
-        <v>0</v>
-      </c>
-      <c r="T14" s="20">
-        <v>0</v>
-      </c>
-      <c r="U14" s="20">
-        <v>0</v>
-      </c>
-      <c r="V14" s="20">
-        <v>0</v>
-      </c>
-      <c r="W14" s="20">
-        <v>0</v>
-      </c>
-      <c r="X14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF14" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="20">
-        <v>0</v>
-      </c>
+    <row r="14" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23"/>
+      <c r="B14" s="42"/>
+      <c r="C14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="20"/>
+      <c r="S14" s="20"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+      <c r="V14" s="20"/>
+      <c r="W14" s="20"/>
+      <c r="X14" s="20"/>
+      <c r="Y14" s="20"/>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="20"/>
+      <c r="AB14" s="20"/>
+      <c r="AC14" s="20"/>
+      <c r="AD14" s="20"/>
+      <c r="AE14" s="20"/>
+      <c r="AF14" s="20"/>
+      <c r="AG14" s="20"/>
     </row>
-    <row r="15" spans="1:33" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <v>14</v>
-      </c>
-      <c r="B15" s="37"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="7"/>
+        <v>12</v>
+      </c>
+      <c r="B15" s="43"/>
+      <c r="C15" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="8"/>
       <c r="E15" s="24"/>
       <c r="F15" s="20">
         <v>0</v>
@@ -2592,14 +2586,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
-        <v>15</v>
-      </c>
-      <c r="B16" s="37"/>
-      <c r="C16" s="14"/>
+        <v>13</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>41</v>
+      </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="24"/>
+      <c r="E16" s="29"/>
       <c r="F16" s="20">
         <v>0</v>
       </c>
@@ -2685,13 +2683,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="23">
-        <v>16</v>
-      </c>
-      <c r="B17" s="38"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="8"/>
+        <v>14</v>
+      </c>
+      <c r="B17" s="42"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="7"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20">
         <v>0</v>
@@ -2778,14 +2776,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="23">
-        <v>17</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C18" s="10"/>
+        <v>15</v>
+      </c>
+      <c r="B18" s="42"/>
+      <c r="C18" s="14"/>
       <c r="D18" s="8"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20">
@@ -2873,12 +2869,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
-        <v>18</v>
-      </c>
-      <c r="B19" s="39"/>
-      <c r="C19" s="10"/>
+        <v>16</v>
+      </c>
+      <c r="B19" s="43"/>
+      <c r="C19" s="14"/>
       <c r="D19" s="8"/>
       <c r="E19" s="24"/>
       <c r="F19" s="20">
@@ -2966,11 +2962,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <v>19</v>
-      </c>
-      <c r="B20" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>27</v>
+      </c>
       <c r="C20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="24"/>
@@ -3059,13 +3057,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <v>20</v>
-      </c>
-      <c r="B21" s="41" t="s">
-        <v>20</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="B21" s="38"/>
       <c r="C21" s="10"/>
       <c r="D21" s="8"/>
       <c r="E21" s="24"/>
@@ -3154,11 +3150,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <v>21</v>
-      </c>
-      <c r="B22" s="41"/>
+        <v>19</v>
+      </c>
+      <c r="B22" s="39"/>
       <c r="C22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="24"/>
@@ -3247,13 +3243,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <v>22</v>
-      </c>
-      <c r="B23" s="41"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="7"/>
+        <v>20</v>
+      </c>
+      <c r="B23" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="8"/>
       <c r="E23" s="24"/>
       <c r="F23" s="20">
         <v>0</v>
@@ -3340,12 +3340,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B24" s="41"/>
-      <c r="C24" s="9"/>
+      <c r="C24" s="10" t="s">
+        <v>43</v>
+      </c>
       <c r="D24" s="8"/>
       <c r="E24" s="24"/>
       <c r="F24" s="20">
@@ -3433,14 +3435,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:33" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="23">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C25" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="D25" s="8"/>
       <c r="E25" s="24"/>
       <c r="F25" s="20">
@@ -3528,12 +3532,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="23">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B26" s="41"/>
-      <c r="C26" s="10"/>
+      <c r="C26" s="10" t="s">
+        <v>45</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="24"/>
       <c r="F26" s="20">
@@ -3621,14 +3627,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
-        <v>26</v>
-      </c>
-      <c r="B27" s="41"/>
-      <c r="C27" s="10"/>
+        <v>29</v>
+      </c>
+      <c r="B27" s="37"/>
+      <c r="C27" s="3"/>
       <c r="D27" s="7"/>
-      <c r="E27" s="24"/>
+      <c r="E27" s="29"/>
       <c r="F27" s="20">
         <v>0</v>
       </c>
@@ -3714,14 +3720,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
-        <v>27</v>
-      </c>
-      <c r="B28" s="41"/>
-      <c r="C28" s="9"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="24"/>
+        <v>30</v>
+      </c>
+      <c r="B28" s="38"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="8"/>
+      <c r="E28" s="29"/>
       <c r="F28" s="20">
         <v>0</v>
       </c>
@@ -3807,11 +3813,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
-        <v>28</v>
-      </c>
-      <c r="B29" s="42"/>
+        <v>31</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
       <c r="E29" s="29"/>
@@ -3900,13 +3906,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="23">
-        <v>29</v>
-      </c>
-      <c r="B30" s="39"/>
+        <v>32</v>
+      </c>
+      <c r="B30" s="38"/>
       <c r="C30" s="3"/>
-      <c r="D30" s="8"/>
+      <c r="D30" s="7"/>
       <c r="E30" s="29"/>
       <c r="F30" s="20">
         <v>0</v>
@@ -3993,13 +3999,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="23">
-        <v>30</v>
-      </c>
-      <c r="B31" s="39"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="7"/>
+        <v>33</v>
+      </c>
+      <c r="B31" s="38"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="8"/>
       <c r="E31" s="29"/>
       <c r="F31" s="20">
         <v>0</v>
@@ -4086,13 +4092,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B32" s="39"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="7"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="8"/>
       <c r="E32" s="29"/>
       <c r="F32" s="20">
         <v>0</v>
@@ -4179,14 +4185,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="23">
-        <v>32</v>
-      </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="29"/>
+        <v>35</v>
+      </c>
+      <c r="B33" s="6"/>
+      <c r="C33" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="24"/>
       <c r="F33" s="20">
         <v>0</v>
       </c>
@@ -4272,14 +4282,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="23">
-        <v>33</v>
-      </c>
-      <c r="B34" s="40"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="29"/>
+        <v>36</v>
+      </c>
+      <c r="B34" s="6"/>
+      <c r="C34" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" s="24"/>
       <c r="F34" s="20">
         <v>0</v>
       </c>
@@ -4367,11 +4381,11 @@
     </row>
     <row r="35" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="23">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>6</v>
@@ -4463,12 +4477,10 @@
       </c>
     </row>
     <row r="36" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
-        <v>35</v>
-      </c>
+      <c r="A36" s="6"/>
       <c r="B36" s="6"/>
       <c r="C36" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>6</v>
@@ -4559,335 +4571,140 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="23">
-        <v>36</v>
-      </c>
+    <row r="37" spans="1:33" ht="19.5" x14ac:dyDescent="0.3">
       <c r="B37" s="6"/>
-      <c r="C37" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="24"/>
-      <c r="F37" s="20">
-        <v>0</v>
-      </c>
-      <c r="G37" s="20">
-        <v>0</v>
-      </c>
-      <c r="H37" s="20">
-        <v>0</v>
-      </c>
-      <c r="I37" s="20">
-        <v>0</v>
-      </c>
-      <c r="J37" s="20">
-        <v>0</v>
-      </c>
-      <c r="K37" s="20">
-        <v>0</v>
-      </c>
-      <c r="L37" s="20">
-        <v>0</v>
-      </c>
-      <c r="M37" s="20">
-        <v>0</v>
-      </c>
-      <c r="N37" s="20">
-        <v>0</v>
-      </c>
-      <c r="O37" s="20">
-        <v>0</v>
-      </c>
-      <c r="P37" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="20">
-        <v>0</v>
-      </c>
-      <c r="R37" s="20">
-        <v>0</v>
-      </c>
-      <c r="S37" s="20">
-        <v>0</v>
-      </c>
-      <c r="T37" s="20">
-        <v>0</v>
-      </c>
-      <c r="U37" s="20">
-        <v>0</v>
-      </c>
-      <c r="V37" s="20">
-        <v>0</v>
-      </c>
-      <c r="W37" s="20">
-        <v>0</v>
-      </c>
-      <c r="X37" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF37" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG37" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6"/>
-      <c r="C38" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="E38" s="24"/>
-      <c r="F38" s="20">
-        <v>0</v>
-      </c>
-      <c r="G38" s="20">
-        <v>0</v>
-      </c>
-      <c r="H38" s="20">
-        <v>0</v>
-      </c>
-      <c r="I38" s="20">
-        <v>0</v>
-      </c>
-      <c r="J38" s="20">
-        <v>0</v>
-      </c>
-      <c r="K38" s="20">
-        <v>0</v>
-      </c>
-      <c r="L38" s="20">
-        <v>0</v>
-      </c>
-      <c r="M38" s="20">
-        <v>0</v>
-      </c>
-      <c r="N38" s="20">
-        <v>0</v>
-      </c>
-      <c r="O38" s="20">
-        <v>0</v>
-      </c>
-      <c r="P38" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="20">
-        <v>0</v>
-      </c>
-      <c r="R38" s="20">
-        <v>0</v>
-      </c>
-      <c r="S38" s="20">
-        <v>0</v>
-      </c>
-      <c r="T38" s="20">
-        <v>0</v>
-      </c>
-      <c r="U38" s="20">
-        <v>0</v>
-      </c>
-      <c r="V38" s="20">
-        <v>0</v>
-      </c>
-      <c r="W38" s="20">
-        <v>0</v>
-      </c>
-      <c r="X38" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y38" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF38" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:33" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
-      <c r="B39" s="6"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="19" t="s">
+      <c r="C37" s="4"/>
+      <c r="D37" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E39" s="2">
-        <f t="shared" ref="E39:AG39" si="0">SUM(E2:E38)</f>
-        <v>0</v>
-      </c>
-      <c r="F39" s="1">
+      <c r="E37" s="2">
+        <f t="shared" ref="E37:AG37" si="0">SUM(E2:E36)</f>
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G39" s="1">
+      <c r="G37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H39" s="1">
+      <c r="H37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I39" s="1">
+      <c r="I37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="J39" s="1">
+      <c r="J37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K39" s="1">
+      <c r="K37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L39" s="1">
+      <c r="L37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M39" s="1">
+      <c r="M37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="N39" s="1">
+      <c r="N37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="O39" s="1">
+      <c r="O37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="P39" s="1">
+      <c r="P37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Q39" s="1">
+      <c r="Q37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="R39" s="1">
+      <c r="R37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="S39" s="1">
+      <c r="S37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T39" s="1">
+      <c r="T37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="U39" s="1">
+      <c r="U37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="V39" s="1">
+      <c r="V37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="W39" s="1">
+      <c r="W37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="X39" s="1">
+      <c r="X37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y39" s="1">
+      <c r="Y37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="1">
+      <c r="Z37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="1">
+      <c r="AA37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AB39" s="1">
+      <c r="AB37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="1">
+      <c r="AC37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="1">
+      <c r="AD37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="1">
+      <c r="AE37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AF39" s="1">
+      <c r="AF37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AG39" s="1">
+      <c r="AG37" s="1">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="B29:B34"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="B21:B24"/>
-    <mergeCell ref="B25:B28"/>
+    <mergeCell ref="B27:B32"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
     <mergeCell ref="B2:B4"/>
     <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B14:B17"/>
+    <mergeCell ref="B8:B11"/>
+    <mergeCell ref="B12:B15"/>
+    <mergeCell ref="B16:B19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4898,7 +4715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
@@ -5041,7 +4858,7 @@
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="B2" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="17"/>
@@ -5137,7 +4954,7 @@
       <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
+      <c r="B3" s="42"/>
       <c r="C3" s="17"/>
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
@@ -5231,7 +5048,7 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="38"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="26"/>
       <c r="D4" s="25"/>
       <c r="E4" s="30"/>
@@ -5325,7 +5142,7 @@
       <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="40" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="10"/>
@@ -5421,7 +5238,7 @@
       <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="42"/>
       <c r="C6" s="13"/>
       <c r="D6" s="25"/>
       <c r="E6" s="31"/>
@@ -5515,7 +5332,7 @@
       <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="38"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="30"/>
@@ -5609,7 +5426,7 @@
       <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="40" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="26"/>
@@ -5705,7 +5522,7 @@
       <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="37"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="30"/>
@@ -5799,7 +5616,7 @@
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="38"/>
+      <c r="B10" s="43"/>
       <c r="C10" s="10"/>
       <c r="D10" s="7"/>
       <c r="E10" s="30"/>
@@ -5893,7 +5710,7 @@
       <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="40" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
@@ -5989,7 +5806,7 @@
       <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="37"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
       <c r="E12" s="30"/>
@@ -6083,7 +5900,7 @@
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="38"/>
+      <c r="B13" s="43"/>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="30"/>
@@ -6177,7 +5994,7 @@
       <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="40" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10"/>
@@ -6273,7 +6090,7 @@
       <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="37"/>
+      <c r="B15" s="42"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
       <c r="E15" s="30"/>
@@ -6367,7 +6184,7 @@
       <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="37"/>
+      <c r="B16" s="42"/>
       <c r="C16" s="14"/>
       <c r="D16" s="8"/>
       <c r="E16" s="30"/>
@@ -6461,7 +6278,7 @@
       <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="38"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
       <c r="E17" s="30"/>
@@ -6555,7 +6372,7 @@
       <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="40" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="10"/>
@@ -6651,7 +6468,7 @@
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="39"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="30"/>
@@ -6745,7 +6562,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="40"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="30"/>
@@ -7595,7 +7412,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="42"/>
+      <c r="B29" s="37"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
       <c r="E29" s="30"/>
@@ -7689,7 +7506,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="39"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
       <c r="E30" s="30"/>
@@ -7783,7 +7600,7 @@
       <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="39"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="3"/>
       <c r="D31" s="7"/>
       <c r="E31" s="30"/>
@@ -7877,7 +7694,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="3"/>
       <c r="D32" s="7"/>
       <c r="E32" s="30"/>
@@ -7971,7 +7788,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="39"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="30"/>
@@ -8065,7 +7882,7 @@
       <c r="A34" s="23">
         <v>33</v>
       </c>
-      <c r="B34" s="40"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8"/>
       <c r="E34" s="30"/>

--- a/7.Print-Backlog/Sprint-3.xlsx
+++ b/7.Print-Backlog/Sprint-3.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Capstone1\7.Print-Backlog\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
   </bookViews>
@@ -11,12 +16,12 @@
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="55">
   <si>
     <t>No</t>
   </si>
@@ -109,11 +114,6 @@
   </si>
   <si>
     <t xml:space="preserve">As a Users
-I want to see the result so that I can know how many points i have achieved, which team wins.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">As a Users
 I want to select key word so that I can guess and get point easier.
 </t>
   </si>
@@ -143,12 +143,6 @@
     <t xml:space="preserve">Code back-end time waiting </t>
   </si>
   <si>
-    <t>Code back-end random word</t>
-  </si>
-  <si>
-    <t>Move random word from server to 4 client in room</t>
-  </si>
-  <si>
     <t>Render name of 4 Players</t>
   </si>
   <si>
@@ -175,11 +169,49 @@
   <si>
     <t>Render system message</t>
   </si>
+  <si>
+    <t>Function check input with keyword</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Users
+I want to see the result so that I can know how many scores i have achieved, which team wins.
+</t>
+  </si>
+  <si>
+    <t>Code back end calculate scores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Render result for 4 player </t>
+  </si>
+  <si>
+    <t>Function get random keyword</t>
+  </si>
+  <si>
+    <t>Render keyword from database to player</t>
+  </si>
+  <si>
+    <t>Send data keyword is choosing to all player in room</t>
+  </si>
+  <si>
+    <t>Save profile of user in database</t>
+  </si>
+  <si>
+    <t>Devide 4 players in two team</t>
+  </si>
+  <si>
+    <t>Devide role for each players</t>
+  </si>
+  <si>
+    <t>Get username from cookies</t>
+  </si>
+  <si>
+    <t>Render name with message</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -361,7 +393,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -470,6 +502,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -490,6 +528,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -508,7 +549,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -685,7 +726,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -839,6 +880,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9558-43F8-9F25-424AD5B058B8}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -848,7 +894,6 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="201803264"/>
         <c:axId val="201804800"/>
@@ -991,7 +1036,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1026,7 +1071,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1237,8 +1282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,11 +1419,11 @@
       <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>22</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D2" s="25"/>
       <c r="E2" s="18"/>
@@ -1471,9 +1516,9 @@
       <c r="A3" s="23">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="25"/>
       <c r="E3" s="31"/>
@@ -1566,8 +1611,10 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="26" t="s">
+        <v>50</v>
+      </c>
       <c r="D4" s="25"/>
       <c r="E4" s="31"/>
       <c r="F4" s="20">
@@ -1655,15 +1702,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" ht="130.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="37" t="s">
         <v>23</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7"/>
       <c r="E5" s="24"/>
@@ -1752,14 +1799,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:33" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="23">
-        <v>5</v>
-      </c>
-      <c r="B6" s="42"/>
-      <c r="C6" s="26"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="31"/>
+        <v>7</v>
+      </c>
+      <c r="B6" s="42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="24"/>
       <c r="F6" s="20">
         <v>0</v>
       </c>
@@ -1845,14 +1896,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:33" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23">
-        <v>6</v>
-      </c>
-      <c r="B7" s="43"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="24"/>
+        <v>8</v>
+      </c>
+      <c r="B7" s="44"/>
+      <c r="C7" s="26" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="31"/>
       <c r="F7" s="20">
         <v>0</v>
       </c>
@@ -1939,239 +1992,239 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="23">
-        <v>7</v>
-      </c>
-      <c r="B8" s="40" t="s">
-        <v>24</v>
-      </c>
+      <c r="A8" s="23"/>
+      <c r="B8" s="44"/>
       <c r="C8" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="20">
-        <v>0</v>
-      </c>
-      <c r="G8" s="20">
-        <v>0</v>
-      </c>
-      <c r="H8" s="20">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
-        <v>0</v>
-      </c>
-      <c r="J8" s="20">
-        <v>0</v>
-      </c>
-      <c r="K8" s="20">
-        <v>0</v>
-      </c>
-      <c r="L8" s="20">
-        <v>0</v>
-      </c>
-      <c r="M8" s="20">
-        <v>0</v>
-      </c>
-      <c r="N8" s="20">
-        <v>0</v>
-      </c>
-      <c r="O8" s="20">
-        <v>0</v>
-      </c>
-      <c r="P8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="20">
-        <v>0</v>
-      </c>
-      <c r="R8" s="20">
-        <v>0</v>
-      </c>
-      <c r="S8" s="20">
-        <v>0</v>
-      </c>
-      <c r="T8" s="20">
-        <v>0</v>
-      </c>
-      <c r="U8" s="20">
-        <v>0</v>
-      </c>
-      <c r="V8" s="20">
-        <v>0</v>
-      </c>
-      <c r="W8" s="20">
-        <v>0</v>
-      </c>
-      <c r="X8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF8" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="20">
-        <v>0</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
     </row>
-    <row r="9" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
-        <v>8</v>
-      </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="45"/>
+      <c r="C9" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="7"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="20">
+        <v>0</v>
+      </c>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
+        <v>0</v>
+      </c>
+      <c r="I9" s="20">
+        <v>0</v>
+      </c>
+      <c r="J9" s="20">
+        <v>0</v>
+      </c>
+      <c r="K9" s="20">
+        <v>0</v>
+      </c>
+      <c r="L9" s="20">
+        <v>0</v>
+      </c>
+      <c r="M9" s="20">
+        <v>0</v>
+      </c>
+      <c r="N9" s="20">
+        <v>0</v>
+      </c>
+      <c r="O9" s="20">
+        <v>0</v>
+      </c>
+      <c r="P9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="20">
+        <v>0</v>
+      </c>
+      <c r="R9" s="20">
+        <v>0</v>
+      </c>
+      <c r="S9" s="20">
+        <v>0</v>
+      </c>
+      <c r="T9" s="20">
+        <v>0</v>
+      </c>
+      <c r="U9" s="20">
+        <v>0</v>
+      </c>
+      <c r="V9" s="20">
+        <v>0</v>
+      </c>
+      <c r="W9" s="20">
+        <v>0</v>
+      </c>
+      <c r="X9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="23">
+        <v>10</v>
+      </c>
+      <c r="B10" s="42" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="20">
-        <v>0</v>
-      </c>
-      <c r="G9" s="20">
-        <v>0</v>
-      </c>
-      <c r="H9" s="20">
-        <v>0</v>
-      </c>
-      <c r="I9" s="20">
-        <v>0</v>
-      </c>
-      <c r="J9" s="20">
-        <v>0</v>
-      </c>
-      <c r="K9" s="20">
-        <v>0</v>
-      </c>
-      <c r="L9" s="20">
-        <v>0</v>
-      </c>
-      <c r="M9" s="20">
-        <v>0</v>
-      </c>
-      <c r="N9" s="20">
-        <v>0</v>
-      </c>
-      <c r="O9" s="20">
-        <v>0</v>
-      </c>
-      <c r="P9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="20">
-        <v>0</v>
-      </c>
-      <c r="R9" s="20">
-        <v>0</v>
-      </c>
-      <c r="S9" s="20">
-        <v>0</v>
-      </c>
-      <c r="T9" s="20">
-        <v>0</v>
-      </c>
-      <c r="U9" s="20">
-        <v>0</v>
-      </c>
-      <c r="V9" s="20">
-        <v>0</v>
-      </c>
-      <c r="W9" s="20">
-        <v>0</v>
-      </c>
-      <c r="X9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF9" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="20">
+      <c r="D10" s="8"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="20">
+        <v>0</v>
+      </c>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
+        <v>0</v>
+      </c>
+      <c r="I10" s="20">
+        <v>0</v>
+      </c>
+      <c r="J10" s="20">
+        <v>0</v>
+      </c>
+      <c r="K10" s="20">
+        <v>0</v>
+      </c>
+      <c r="L10" s="20">
+        <v>0</v>
+      </c>
+      <c r="M10" s="20">
+        <v>0</v>
+      </c>
+      <c r="N10" s="20">
+        <v>0</v>
+      </c>
+      <c r="O10" s="20">
+        <v>0</v>
+      </c>
+      <c r="P10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="20">
+        <v>0</v>
+      </c>
+      <c r="R10" s="20">
+        <v>0</v>
+      </c>
+      <c r="S10" s="20">
+        <v>0</v>
+      </c>
+      <c r="T10" s="20">
+        <v>0</v>
+      </c>
+      <c r="U10" s="20">
+        <v>0</v>
+      </c>
+      <c r="V10" s="20">
+        <v>0</v>
+      </c>
+      <c r="W10" s="20">
+        <v>0</v>
+      </c>
+      <c r="X10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="20">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="42"/>
-      <c r="C10" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="36"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
-      <c r="K10" s="20"/>
-      <c r="L10" s="20"/>
-      <c r="M10" s="20"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-      <c r="U10" s="20"/>
-      <c r="V10" s="20"/>
-      <c r="W10" s="20"/>
-      <c r="X10" s="20"/>
-      <c r="Y10" s="20"/>
-      <c r="Z10" s="20"/>
-      <c r="AA10" s="20"/>
-      <c r="AB10" s="20"/>
-      <c r="AC10" s="20"/>
-      <c r="AD10" s="20"/>
-      <c r="AE10" s="20"/>
-      <c r="AF10" s="20"/>
-      <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="1:33" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
-        <v>9</v>
-      </c>
-      <c r="B11" s="43"/>
+        <v>11</v>
+      </c>
+      <c r="B11" s="44"/>
       <c r="C11" s="10" t="s">
         <v>35</v>
       </c>
@@ -2262,112 +2315,52 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="23">
-        <v>10</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>25</v>
-      </c>
+    <row r="12" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="23"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="20"/>
+      <c r="P12" s="20"/>
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="20"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="20"/>
+      <c r="X12" s="20"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="20"/>
+      <c r="AB12" s="20"/>
+      <c r="AC12" s="20"/>
+      <c r="AD12" s="20"/>
+      <c r="AE12" s="20"/>
+      <c r="AF12" s="20"/>
+      <c r="AG12" s="20"/>
+    </row>
+    <row r="13" spans="1:33" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="23">
+        <v>12</v>
+      </c>
+      <c r="B13" s="45"/>
+      <c r="C13" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D12" s="8"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
-        <v>0</v>
-      </c>
-      <c r="J12" s="20">
-        <v>0</v>
-      </c>
-      <c r="K12" s="20">
-        <v>0</v>
-      </c>
-      <c r="L12" s="20">
-        <v>0</v>
-      </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
-        <v>0</v>
-      </c>
-      <c r="S12" s="20">
-        <v>0</v>
-      </c>
-      <c r="T12" s="20">
-        <v>0</v>
-      </c>
-      <c r="U12" s="20">
-        <v>0</v>
-      </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
-        <v>0</v>
-      </c>
-      <c r="X12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="23">
-        <v>11</v>
-      </c>
-      <c r="B13" s="42"/>
-      <c r="C13" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="8"/>
       <c r="E13" s="24"/>
       <c r="F13" s="20">
         <v>0</v>
@@ -2454,52 +2447,112 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23"/>
-      <c r="B14" s="42"/>
+    <row r="14" spans="1:33" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="23">
+        <v>13</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>44</v>
+      </c>
       <c r="C14" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="36"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-      <c r="U14" s="20"/>
-      <c r="V14" s="20"/>
-      <c r="W14" s="20"/>
-      <c r="X14" s="20"/>
-      <c r="Y14" s="20"/>
-      <c r="Z14" s="20"/>
-      <c r="AA14" s="20"/>
-      <c r="AB14" s="20"/>
-      <c r="AC14" s="20"/>
-      <c r="AD14" s="20"/>
-      <c r="AE14" s="20"/>
-      <c r="AF14" s="20"/>
-      <c r="AG14" s="20"/>
+        <v>38</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="20">
+        <v>0</v>
+      </c>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
+        <v>0</v>
+      </c>
+      <c r="I14" s="20">
+        <v>0</v>
+      </c>
+      <c r="J14" s="20">
+        <v>0</v>
+      </c>
+      <c r="K14" s="20">
+        <v>0</v>
+      </c>
+      <c r="L14" s="20">
+        <v>0</v>
+      </c>
+      <c r="M14" s="20">
+        <v>0</v>
+      </c>
+      <c r="N14" s="20">
+        <v>0</v>
+      </c>
+      <c r="O14" s="20">
+        <v>0</v>
+      </c>
+      <c r="P14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="20">
+        <v>0</v>
+      </c>
+      <c r="R14" s="20">
+        <v>0</v>
+      </c>
+      <c r="S14" s="20">
+        <v>0</v>
+      </c>
+      <c r="T14" s="20">
+        <v>0</v>
+      </c>
+      <c r="U14" s="20">
+        <v>0</v>
+      </c>
+      <c r="V14" s="20">
+        <v>0</v>
+      </c>
+      <c r="W14" s="20">
+        <v>0</v>
+      </c>
+      <c r="X14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="20">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="23">
-        <v>12</v>
-      </c>
-      <c r="B15" s="43"/>
+        <v>14</v>
+      </c>
+      <c r="B15" s="44"/>
       <c r="C15" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="8"/>
+        <v>43</v>
+      </c>
+      <c r="D15" s="7"/>
       <c r="E15" s="24"/>
       <c r="F15" s="20">
         <v>0</v>
@@ -2586,18 +2639,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:33" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
-        <v>13</v>
-      </c>
-      <c r="B16" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>41</v>
+        <v>15</v>
+      </c>
+      <c r="B16" s="44"/>
+      <c r="C16" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="29"/>
+      <c r="E16" s="24"/>
       <c r="F16" s="20">
         <v>0</v>
       </c>
@@ -2683,13 +2734,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:33" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="23">
-        <v>14</v>
-      </c>
-      <c r="B17" s="42"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="B17" s="45"/>
+      <c r="C17" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="8"/>
       <c r="E17" s="24"/>
       <c r="F17" s="20">
         <v>0</v>
@@ -2776,12 +2829,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="23">
-        <v>15</v>
-      </c>
-      <c r="B18" s="42"/>
-      <c r="C18" s="14"/>
+        <v>17</v>
+      </c>
+      <c r="B18" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>47</v>
+      </c>
       <c r="D18" s="8"/>
       <c r="E18" s="24"/>
       <c r="F18" s="20">
@@ -2869,12 +2926,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:33" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="23">
-        <v>16</v>
-      </c>
-      <c r="B19" s="43"/>
-      <c r="C19" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="B19" s="40"/>
+      <c r="C19" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="8"/>
       <c r="E19" s="24"/>
       <c r="F19" s="20">
@@ -2962,14 +3021,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:33" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
-        <v>17</v>
-      </c>
-      <c r="B20" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="10"/>
+        <v>19</v>
+      </c>
+      <c r="B20" s="41"/>
+      <c r="C20" s="10" t="s">
+        <v>49</v>
+      </c>
       <c r="D20" s="8"/>
       <c r="E20" s="24"/>
       <c r="F20" s="20">
@@ -3057,12 +3116,16 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="23">
-        <v>18</v>
-      </c>
-      <c r="B21" s="38"/>
-      <c r="C21" s="10"/>
+        <v>20</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>39</v>
+      </c>
       <c r="D21" s="8"/>
       <c r="E21" s="24"/>
       <c r="F21" s="20">
@@ -3150,12 +3213,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:33" ht="39" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="23">
-        <v>19</v>
-      </c>
-      <c r="B22" s="39"/>
-      <c r="C22" s="10"/>
+        <v>21</v>
+      </c>
+      <c r="B22" s="43"/>
+      <c r="C22" s="10" t="s">
+        <v>40</v>
+      </c>
       <c r="D22" s="8"/>
       <c r="E22" s="24"/>
       <c r="F22" s="20">
@@ -3243,15 +3308,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:33" ht="59.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="23">
-        <v>20</v>
-      </c>
-      <c r="B23" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="43" t="s">
         <v>28</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="24"/>
@@ -3340,205 +3405,87 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:33" ht="51" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
-        <v>21</v>
-      </c>
-      <c r="B24" s="41"/>
+    <row r="24" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="23"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="8"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="20">
-        <v>0</v>
-      </c>
-      <c r="G24" s="20">
-        <v>0</v>
-      </c>
-      <c r="H24" s="20">
-        <v>0</v>
-      </c>
-      <c r="I24" s="20">
-        <v>0</v>
-      </c>
-      <c r="J24" s="20">
-        <v>0</v>
-      </c>
-      <c r="K24" s="20">
-        <v>0</v>
-      </c>
-      <c r="L24" s="20">
-        <v>0</v>
-      </c>
-      <c r="M24" s="20">
-        <v>0</v>
-      </c>
-      <c r="N24" s="20">
-        <v>0</v>
-      </c>
-      <c r="O24" s="20">
-        <v>0</v>
-      </c>
-      <c r="P24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="20">
-        <v>0</v>
-      </c>
-      <c r="R24" s="20">
-        <v>0</v>
-      </c>
-      <c r="S24" s="20">
-        <v>0</v>
-      </c>
-      <c r="T24" s="20">
-        <v>0</v>
-      </c>
-      <c r="U24" s="20">
-        <v>0</v>
-      </c>
-      <c r="V24" s="20">
-        <v>0</v>
-      </c>
-      <c r="W24" s="20">
-        <v>0</v>
-      </c>
-      <c r="X24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF24" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG24" s="20">
-        <v>0</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="D24" s="7"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="20"/>
+      <c r="G24" s="20"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="20"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="20"/>
+      <c r="N24" s="20"/>
+      <c r="O24" s="20"/>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="20"/>
+      <c r="R24" s="20"/>
+      <c r="S24" s="20"/>
+      <c r="T24" s="20"/>
+      <c r="U24" s="20"/>
+      <c r="V24" s="20"/>
+      <c r="W24" s="20"/>
+      <c r="X24" s="20"/>
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="20"/>
+      <c r="AA24" s="20"/>
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="20"/>
+      <c r="AD24" s="20"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="20"/>
+      <c r="AG24" s="20"/>
     </row>
-    <row r="25" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="23">
-        <v>25</v>
-      </c>
-      <c r="B25" s="41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="20">
-        <v>0</v>
-      </c>
-      <c r="G25" s="20">
-        <v>0</v>
-      </c>
-      <c r="H25" s="20">
-        <v>0</v>
-      </c>
-      <c r="I25" s="20">
-        <v>0</v>
-      </c>
-      <c r="J25" s="20">
-        <v>0</v>
-      </c>
-      <c r="K25" s="20">
-        <v>0</v>
-      </c>
-      <c r="L25" s="20">
-        <v>0</v>
-      </c>
-      <c r="M25" s="20">
-        <v>0</v>
-      </c>
-      <c r="N25" s="20">
-        <v>0</v>
-      </c>
-      <c r="O25" s="20">
-        <v>0</v>
-      </c>
-      <c r="P25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="20">
-        <v>0</v>
-      </c>
-      <c r="R25" s="20">
-        <v>0</v>
-      </c>
-      <c r="S25" s="20">
-        <v>0</v>
-      </c>
-      <c r="T25" s="20">
-        <v>0</v>
-      </c>
-      <c r="U25" s="20">
-        <v>0</v>
-      </c>
-      <c r="V25" s="20">
-        <v>0</v>
-      </c>
-      <c r="W25" s="20">
-        <v>0</v>
-      </c>
-      <c r="X25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AB25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AD25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AF25" s="20">
-        <v>0</v>
-      </c>
-      <c r="AG25" s="20">
-        <v>0</v>
-      </c>
+    <row r="25" spans="1:33" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="23"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="46" t="s">
+        <v>54</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="20"/>
+      <c r="G25" s="20"/>
+      <c r="H25" s="20"/>
+      <c r="I25" s="20"/>
+      <c r="J25" s="20"/>
+      <c r="K25" s="20"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="20"/>
+      <c r="N25" s="20"/>
+      <c r="O25" s="20"/>
+      <c r="P25" s="20"/>
+      <c r="Q25" s="20"/>
+      <c r="R25" s="20"/>
+      <c r="S25" s="20"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="20"/>
+      <c r="V25" s="20"/>
+      <c r="W25" s="20"/>
+      <c r="X25" s="20"/>
+      <c r="Y25" s="20"/>
+      <c r="Z25" s="20"/>
+      <c r="AA25" s="20"/>
+      <c r="AB25" s="20"/>
+      <c r="AC25" s="20"/>
+      <c r="AD25" s="20"/>
+      <c r="AE25" s="20"/>
+      <c r="AF25" s="20"/>
+      <c r="AG25" s="20"/>
     </row>
-    <row r="26" spans="1:33" ht="57" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="23">
         <v>26</v>
       </c>
-      <c r="B26" s="41"/>
-      <c r="C26" s="10" t="s">
-        <v>45</v>
+      <c r="B26" s="43"/>
+      <c r="C26" s="3" t="s">
+        <v>53</v>
       </c>
       <c r="D26" s="7"/>
       <c r="E26" s="24"/>
@@ -3631,7 +3578,7 @@
       <c r="A27" s="23">
         <v>29</v>
       </c>
-      <c r="B27" s="37"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="3"/>
       <c r="D27" s="7"/>
       <c r="E27" s="29"/>
@@ -3724,7 +3671,7 @@
       <c r="A28" s="23">
         <v>30</v>
       </c>
-      <c r="B28" s="38"/>
+      <c r="B28" s="40"/>
       <c r="C28" s="3"/>
       <c r="D28" s="8"/>
       <c r="E28" s="29"/>
@@ -3817,7 +3764,7 @@
       <c r="A29" s="23">
         <v>31</v>
       </c>
-      <c r="B29" s="38"/>
+      <c r="B29" s="40"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
       <c r="E29" s="29"/>
@@ -3910,7 +3857,7 @@
       <c r="A30" s="23">
         <v>32</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="3"/>
       <c r="D30" s="7"/>
       <c r="E30" s="29"/>
@@ -4003,7 +3950,7 @@
       <c r="A31" s="23">
         <v>33</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="9"/>
       <c r="D31" s="8"/>
       <c r="E31" s="29"/>
@@ -4096,7 +4043,7 @@
       <c r="A32" s="23">
         <v>34</v>
       </c>
-      <c r="B32" s="39"/>
+      <c r="B32" s="41"/>
       <c r="C32" s="9"/>
       <c r="D32" s="8"/>
       <c r="E32" s="29"/>
@@ -4695,16 +4642,15 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="B27:B32"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B26"/>
     <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B8:B11"/>
-    <mergeCell ref="B12:B15"/>
-    <mergeCell ref="B16:B19"/>
+    <mergeCell ref="B6:B9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="B14:B17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4858,7 +4804,7 @@
       <c r="A2" s="31">
         <v>1</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="42" t="s">
         <v>14</v>
       </c>
       <c r="C2" s="17"/>
@@ -4954,7 +4900,7 @@
       <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="42"/>
+      <c r="B3" s="44"/>
       <c r="C3" s="17"/>
       <c r="D3" s="33"/>
       <c r="E3" s="2"/>
@@ -5048,7 +4994,7 @@
       <c r="A4" s="23">
         <v>3</v>
       </c>
-      <c r="B4" s="43"/>
+      <c r="B4" s="45"/>
       <c r="C4" s="26"/>
       <c r="D4" s="25"/>
       <c r="E4" s="30"/>
@@ -5142,7 +5088,7 @@
       <c r="A5" s="32">
         <v>4</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="42" t="s">
         <v>15</v>
       </c>
       <c r="C5" s="10"/>
@@ -5238,7 +5184,7 @@
       <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="B6" s="42"/>
+      <c r="B6" s="44"/>
       <c r="C6" s="13"/>
       <c r="D6" s="25"/>
       <c r="E6" s="31"/>
@@ -5332,7 +5278,7 @@
       <c r="A7" s="23">
         <v>6</v>
       </c>
-      <c r="B7" s="43"/>
+      <c r="B7" s="45"/>
       <c r="C7" s="26"/>
       <c r="D7" s="27"/>
       <c r="E7" s="30"/>
@@ -5426,7 +5372,7 @@
       <c r="A8" s="32">
         <v>7</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="42" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="26"/>
@@ -5522,7 +5468,7 @@
       <c r="A9" s="32">
         <v>8</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="26"/>
       <c r="D9" s="27"/>
       <c r="E9" s="30"/>
@@ -5616,7 +5562,7 @@
       <c r="A10" s="23">
         <v>9</v>
       </c>
-      <c r="B10" s="43"/>
+      <c r="B10" s="45"/>
       <c r="C10" s="10"/>
       <c r="D10" s="7"/>
       <c r="E10" s="30"/>
@@ -5710,7 +5656,7 @@
       <c r="A11" s="32">
         <v>10</v>
       </c>
-      <c r="B11" s="40" t="s">
+      <c r="B11" s="42" t="s">
         <v>16</v>
       </c>
       <c r="C11" s="10"/>
@@ -5806,7 +5752,7 @@
       <c r="A12" s="32">
         <v>11</v>
       </c>
-      <c r="B12" s="42"/>
+      <c r="B12" s="44"/>
       <c r="C12" s="10"/>
       <c r="D12" s="7"/>
       <c r="E12" s="30"/>
@@ -5900,7 +5846,7 @@
       <c r="A13" s="23">
         <v>12</v>
       </c>
-      <c r="B13" s="43"/>
+      <c r="B13" s="45"/>
       <c r="C13" s="10"/>
       <c r="D13" s="8"/>
       <c r="E13" s="30"/>
@@ -5994,7 +5940,7 @@
       <c r="A14" s="32">
         <v>13</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="42" t="s">
         <v>17</v>
       </c>
       <c r="C14" s="10"/>
@@ -6090,7 +6036,7 @@
       <c r="A15" s="32">
         <v>14</v>
       </c>
-      <c r="B15" s="42"/>
+      <c r="B15" s="44"/>
       <c r="C15" s="10"/>
       <c r="D15" s="7"/>
       <c r="E15" s="30"/>
@@ -6184,7 +6130,7 @@
       <c r="A16" s="23">
         <v>15</v>
       </c>
-      <c r="B16" s="42"/>
+      <c r="B16" s="44"/>
       <c r="C16" s="14"/>
       <c r="D16" s="8"/>
       <c r="E16" s="30"/>
@@ -6278,7 +6224,7 @@
       <c r="A17" s="32">
         <v>16</v>
       </c>
-      <c r="B17" s="43"/>
+      <c r="B17" s="45"/>
       <c r="C17" s="14"/>
       <c r="D17" s="8"/>
       <c r="E17" s="30"/>
@@ -6372,7 +6318,7 @@
       <c r="A18" s="32">
         <v>17</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="42" t="s">
         <v>19</v>
       </c>
       <c r="C18" s="10"/>
@@ -6468,7 +6414,7 @@
       <c r="A19" s="23">
         <v>18</v>
       </c>
-      <c r="B19" s="38"/>
+      <c r="B19" s="40"/>
       <c r="C19" s="10"/>
       <c r="D19" s="8"/>
       <c r="E19" s="30"/>
@@ -6562,7 +6508,7 @@
       <c r="A20" s="32">
         <v>19</v>
       </c>
-      <c r="B20" s="39"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="10"/>
       <c r="D20" s="8"/>
       <c r="E20" s="30"/>
@@ -6656,7 +6602,7 @@
       <c r="A21" s="32">
         <v>20</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="43" t="s">
         <v>20</v>
       </c>
       <c r="C21" s="10"/>
@@ -6752,7 +6698,7 @@
       <c r="A22" s="23">
         <v>21</v>
       </c>
-      <c r="B22" s="41"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="10"/>
       <c r="D22" s="8"/>
       <c r="E22" s="30"/>
@@ -6846,7 +6792,7 @@
       <c r="A23" s="32">
         <v>22</v>
       </c>
-      <c r="B23" s="41"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="10"/>
       <c r="D23" s="7"/>
       <c r="E23" s="30"/>
@@ -6940,7 +6886,7 @@
       <c r="A24" s="32">
         <v>23</v>
       </c>
-      <c r="B24" s="41"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="9"/>
       <c r="D24" s="8"/>
       <c r="E24" s="30"/>
@@ -7034,7 +6980,7 @@
       <c r="A25" s="23">
         <v>24</v>
       </c>
-      <c r="B25" s="41" t="s">
+      <c r="B25" s="43" t="s">
         <v>21</v>
       </c>
       <c r="C25" s="10"/>
@@ -7130,7 +7076,7 @@
       <c r="A26" s="32">
         <v>25</v>
       </c>
-      <c r="B26" s="41"/>
+      <c r="B26" s="43"/>
       <c r="C26" s="10"/>
       <c r="D26" s="7"/>
       <c r="E26" s="30"/>
@@ -7224,7 +7170,7 @@
       <c r="A27" s="32">
         <v>26</v>
       </c>
-      <c r="B27" s="41"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="10"/>
       <c r="D27" s="7"/>
       <c r="E27" s="30"/>
@@ -7318,7 +7264,7 @@
       <c r="A28" s="23">
         <v>27</v>
       </c>
-      <c r="B28" s="41"/>
+      <c r="B28" s="43"/>
       <c r="C28" s="9"/>
       <c r="D28" s="7"/>
       <c r="E28" s="30"/>
@@ -7412,7 +7358,7 @@
       <c r="A29" s="32">
         <v>28</v>
       </c>
-      <c r="B29" s="37"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="3"/>
       <c r="D29" s="7"/>
       <c r="E29" s="30"/>
@@ -7506,7 +7452,7 @@
       <c r="A30" s="32">
         <v>29</v>
       </c>
-      <c r="B30" s="38"/>
+      <c r="B30" s="40"/>
       <c r="C30" s="3"/>
       <c r="D30" s="8"/>
       <c r="E30" s="30"/>
@@ -7600,7 +7546,7 @@
       <c r="A31" s="23">
         <v>30</v>
       </c>
-      <c r="B31" s="38"/>
+      <c r="B31" s="40"/>
       <c r="C31" s="3"/>
       <c r="D31" s="7"/>
       <c r="E31" s="30"/>
@@ -7694,7 +7640,7 @@
       <c r="A32" s="32">
         <v>31</v>
       </c>
-      <c r="B32" s="38"/>
+      <c r="B32" s="40"/>
       <c r="C32" s="3"/>
       <c r="D32" s="7"/>
       <c r="E32" s="30"/>
@@ -7788,7 +7734,7 @@
       <c r="A33" s="32">
         <v>32</v>
       </c>
-      <c r="B33" s="38"/>
+      <c r="B33" s="40"/>
       <c r="C33" s="9"/>
       <c r="D33" s="8"/>
       <c r="E33" s="30"/>
@@ -7882,7 +7828,7 @@
       <c r="A34" s="23">
         <v>33</v>
       </c>
-      <c r="B34" s="39"/>
+      <c r="B34" s="41"/>
       <c r="C34" s="9"/>
       <c r="D34" s="8"/>
       <c r="E34" s="30"/>

--- a/7.Print-Backlog/Sprint-3.xlsx
+++ b/7.Print-Backlog/Sprint-3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="59">
   <si>
     <t>No</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Test case for select keyword</t>
-  </si>
-  <si>
-    <t>o</t>
   </si>
   <si>
     <t>Test case for explain word</t>
@@ -398,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -464,12 +461,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,25 +476,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -529,6 +502,27 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -895,11 +889,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="208254848"/>
-        <c:axId val="208256384"/>
+        <c:axId val="201185152"/>
+        <c:axId val="201186688"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="208254848"/>
+        <c:axId val="201185152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -909,14 +903,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208256384"/>
+        <c:crossAx val="201186688"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="208256384"/>
+        <c:axId val="201186688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -927,7 +921,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="208254848"/>
+        <c:crossAx val="201185152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1282,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1419,16 +1413,18 @@
       <c r="A2" s="9">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="12"/>
+      <c r="D2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="12">
+        <v>6</v>
+      </c>
       <c r="F2" s="14">
         <v>0</v>
       </c>
@@ -1518,14 +1514,16 @@
       <c r="A3" s="17">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="22"/>
+      <c r="D3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="21">
+        <v>8</v>
+      </c>
       <c r="F3" s="14">
         <v>0</v>
       </c>
@@ -1615,14 +1613,16 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="22"/>
+      <c r="D4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="21">
+        <v>8</v>
+      </c>
       <c r="F4" s="14">
         <v>0</v>
       </c>
@@ -1712,16 +1712,18 @@
       <c r="A5" s="17">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="18"/>
+      <c r="D5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="18">
+        <v>10</v>
+      </c>
       <c r="F5" s="14">
         <v>0</v>
       </c>
@@ -1809,18 +1811,20 @@
     </row>
     <row r="6" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
-        <v>7</v>
-      </c>
-      <c r="B6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="18"/>
+      <c r="D6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="18">
+        <v>8</v>
+      </c>
       <c r="F6" s="14">
         <v>0</v>
       </c>
@@ -1908,16 +1912,18 @@
     </row>
     <row r="7" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
-        <v>8</v>
-      </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="41"/>
+      <c r="C7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="22"/>
+      <c r="D7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="21">
+        <v>10</v>
+      </c>
       <c r="F7" s="14">
         <v>0</v>
       </c>
@@ -2004,15 +2010,19 @@
       </c>
     </row>
     <row r="8" spans="1:33" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="17">
+        <v>7</v>
+      </c>
+      <c r="B8" s="41"/>
+      <c r="C8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="26"/>
+      <c r="D8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="24">
+        <v>10</v>
+      </c>
       <c r="F8" s="14"/>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
@@ -2044,16 +2054,18 @@
     </row>
     <row r="9" spans="1:33" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
-        <v>9</v>
-      </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="18"/>
+      <c r="D9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="18">
+        <v>20</v>
+      </c>
       <c r="F9" s="14">
         <v>0</v>
       </c>
@@ -2141,18 +2153,20 @@
     </row>
     <row r="10" spans="1:33" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
-        <v>10</v>
-      </c>
-      <c r="B10" s="33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="20"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="20">
+        <v>12</v>
+      </c>
       <c r="F10" s="14">
         <v>0</v>
       </c>
@@ -2240,16 +2254,18 @@
     </row>
     <row r="11" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
-        <v>11</v>
-      </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="41"/>
+      <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="18">
+        <v>10</v>
+      </c>
       <c r="F11" s="14">
         <v>0</v>
       </c>
@@ -2336,15 +2352,19 @@
       </c>
     </row>
     <row r="12" spans="1:33" ht="42.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="17"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="17">
+        <v>11</v>
+      </c>
+      <c r="B12" s="41"/>
+      <c r="C12" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="26"/>
+        <v>55</v>
+      </c>
+      <c r="E12" s="24">
+        <v>15</v>
+      </c>
       <c r="F12" s="14"/>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
@@ -2378,14 +2398,16 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="18"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="18">
+        <v>20</v>
+      </c>
       <c r="F13" s="14">
         <v>0</v>
       </c>
@@ -2475,16 +2497,18 @@
       <c r="A14" s="17">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="20"/>
+      <c r="D14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="20">
+        <v>8</v>
+      </c>
       <c r="F14" s="14">
         <v>0</v>
       </c>
@@ -2574,14 +2598,16 @@
       <c r="A15" s="17">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="18"/>
+      <c r="D15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="18">
+        <v>8</v>
+      </c>
       <c r="F15" s="14">
         <v>0</v>
       </c>
@@ -2671,14 +2697,16 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="18"/>
+      <c r="D16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="18">
+        <v>14</v>
+      </c>
       <c r="F16" s="14">
         <v>0</v>
       </c>
@@ -2768,14 +2796,16 @@
       <c r="A17" s="17">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="18"/>
+      <c r="D17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="18">
+        <v>15</v>
+      </c>
       <c r="F17" s="14">
         <v>0</v>
       </c>
@@ -2865,16 +2895,18 @@
       <c r="A18" s="17">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="18"/>
+      <c r="D18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="18">
+        <v>15</v>
+      </c>
       <c r="F18" s="14">
         <v>0</v>
       </c>
@@ -2964,14 +2996,16 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="18"/>
+      <c r="D19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="18">
+        <v>18</v>
+      </c>
       <c r="F19" s="14">
         <v>0</v>
       </c>
@@ -3061,14 +3095,16 @@
       <c r="A20" s="17">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="18"/>
+      <c r="D20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="18">
+        <v>20</v>
+      </c>
       <c r="F20" s="14">
         <v>0</v>
       </c>
@@ -3158,16 +3194,18 @@
       <c r="A21" s="17">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="18">
+        <v>10</v>
+      </c>
       <c r="F21" s="14">
         <v>0</v>
       </c>
@@ -3257,14 +3295,16 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="18"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="18">
+        <v>8</v>
+      </c>
       <c r="F22" s="14">
         <v>0</v>
       </c>
@@ -3352,18 +3392,20 @@
     </row>
     <row r="23" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="17">
-        <v>25</v>
-      </c>
-      <c r="B23" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="18"/>
+      <c r="D23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="18">
+        <v>12</v>
+      </c>
       <c r="F23" s="14">
         <v>0</v>
       </c>
@@ -3450,15 +3492,19 @@
       </c>
     </row>
     <row r="24" spans="1:33" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="17"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="42" t="s">
+      <c r="A24" s="17">
+        <v>23</v>
+      </c>
+      <c r="B24" s="40"/>
+      <c r="C24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="27"/>
+      <c r="D24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="25">
+        <v>15</v>
+      </c>
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -3489,15 +3535,19 @@
       <c r="AG24" s="14"/>
     </row>
     <row r="25" spans="1:33" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="17"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="44" t="s">
+      <c r="A25" s="17">
+        <v>24</v>
+      </c>
+      <c r="B25" s="40"/>
+      <c r="C25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="27"/>
+      <c r="D25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="25">
+        <v>20</v>
+      </c>
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -3529,16 +3579,18 @@
     </row>
     <row r="26" spans="1:33" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17">
-        <v>26</v>
-      </c>
-      <c r="B26" s="34"/>
+        <v>25</v>
+      </c>
+      <c r="B26" s="40"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="18"/>
+      <c r="D26" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="18">
+        <v>20</v>
+      </c>
       <c r="F26" s="14">
         <v>0</v>
       </c>
@@ -3626,16 +3678,18 @@
     </row>
     <row r="27" spans="1:33" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="17">
-        <v>29</v>
-      </c>
-      <c r="B27" s="30"/>
+        <v>26</v>
+      </c>
+      <c r="B27" s="43"/>
       <c r="C27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E27" s="20">
+        <v>2</v>
+      </c>
       <c r="F27" s="14">
         <v>0</v>
       </c>
@@ -3723,16 +3777,18 @@
     </row>
     <row r="28" spans="1:33" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="17">
-        <v>30</v>
-      </c>
-      <c r="B28" s="31"/>
+        <v>27</v>
+      </c>
+      <c r="B28" s="38"/>
       <c r="C28" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E28" s="20">
+        <v>2</v>
+      </c>
       <c r="F28" s="14">
         <v>0</v>
       </c>
@@ -3820,16 +3876,18 @@
     </row>
     <row r="29" spans="1:33" ht="39" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17">
-        <v>31</v>
-      </c>
-      <c r="B29" s="31"/>
+        <v>28</v>
+      </c>
+      <c r="B29" s="38"/>
       <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E29" s="20">
+        <v>2</v>
+      </c>
       <c r="F29" s="14">
         <v>0</v>
       </c>
@@ -3917,16 +3975,18 @@
     </row>
     <row r="30" spans="1:33" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="17">
-        <v>32</v>
-      </c>
-      <c r="B30" s="31"/>
+        <v>29</v>
+      </c>
+      <c r="B30" s="38"/>
       <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="20"/>
+        <v>58</v>
+      </c>
+      <c r="E30" s="20">
+        <v>2</v>
+      </c>
       <c r="F30" s="14">
         <v>0</v>
       </c>
@@ -4014,16 +4074,18 @@
     </row>
     <row r="31" spans="1:33" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="17">
-        <v>33</v>
-      </c>
-      <c r="B31" s="31"/>
+        <v>30</v>
+      </c>
+      <c r="B31" s="38"/>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="20"/>
+      <c r="D31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="20">
+        <v>2</v>
+      </c>
       <c r="F31" s="14">
         <v>0</v>
       </c>
@@ -4111,16 +4173,18 @@
     </row>
     <row r="32" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17">
-        <v>34</v>
-      </c>
-      <c r="B32" s="31"/>
+        <v>31</v>
+      </c>
+      <c r="B32" s="38"/>
       <c r="C32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="20"/>
+      <c r="D32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="20">
+        <v>2</v>
+      </c>
       <c r="F32" s="14">
         <v>0</v>
       </c>
@@ -4207,17 +4271,19 @@
       </c>
     </row>
     <row r="33" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="17">
+        <v>32</v>
+      </c>
+      <c r="B33" s="38"/>
+      <c r="C33" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B33" s="31"/>
-      <c r="C33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29"/>
+      <c r="D33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="27">
+        <v>2</v>
+      </c>
       <c r="F33" s="14"/>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
@@ -4248,15 +4314,19 @@
       <c r="AG33" s="14"/>
     </row>
     <row r="34" spans="1:33" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="17"/>
-      <c r="B34" s="32"/>
+      <c r="A34" s="17">
+        <v>33</v>
+      </c>
+      <c r="B34" s="39"/>
       <c r="C34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="29"/>
+        <v>54</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="27">
+        <v>2</v>
+      </c>
       <c r="F34" s="14"/>
       <c r="G34" s="14"/>
       <c r="H34" s="14"/>
@@ -4288,7 +4358,7 @@
     </row>
     <row r="35" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="5"/>
       <c r="C35" s="3" t="s">
@@ -4385,7 +4455,7 @@
     </row>
     <row r="36" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="17">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B36" s="5"/>
       <c r="C36" s="3" t="s">
@@ -4482,7 +4552,7 @@
     </row>
     <row r="37" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="17">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B37" s="5"/>
       <c r="C37" s="3" t="s">
@@ -4578,7 +4648,9 @@
       </c>
     </row>
     <row r="38" spans="1:33" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="5"/>
+      <c r="A38" s="17">
+        <v>37</v>
+      </c>
       <c r="B38" s="5"/>
       <c r="C38" s="3" t="s">
         <v>9</v>
@@ -4680,7 +4752,7 @@
       </c>
       <c r="E39" s="2">
         <f t="shared" ref="E39:AG39" si="0">SUM(E2:E38)</f>
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="0"/>
@@ -4797,6 +4869,7 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="B27:B34"/>
     <mergeCell ref="B18:B20"/>
     <mergeCell ref="B21:B22"/>
     <mergeCell ref="B23:B26"/>
@@ -4804,7 +4877,6 @@
     <mergeCell ref="B6:B9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="B14:B17"/>
-    <mergeCell ref="B27:B34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -4815,8 +4887,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH41"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F34" sqref="F2:F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4955,200 +5027,208 @@
       </c>
     </row>
     <row r="2" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
+      <c r="A2" s="21">
         <v>1</v>
       </c>
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="37" t="s">
+      <c r="C2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="D2" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="25" t="s">
+      <c r="D2" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="28">
+        <v>6</v>
+      </c>
+      <c r="F2" s="28">
+        <v>6</v>
+      </c>
+      <c r="G2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="25" t="s">
+      <c r="Y2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Z2" s="25" t="s">
+      <c r="Z2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="25" t="s">
+      <c r="AA2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC2" s="25" t="s">
+      <c r="AC2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD2" s="25" t="s">
+      <c r="AD2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE2" s="25" t="s">
+      <c r="AE2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AF2" s="25" t="s">
+      <c r="AF2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AG2" s="25" t="s">
+      <c r="AG2" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AH2" s="25" t="s">
+      <c r="AH2" s="23" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:34" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
+      <c r="A3" s="21">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
-      <c r="C3" s="37" t="s">
+      <c r="B3" s="41"/>
+      <c r="C3" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="25">
-        <v>0</v>
-      </c>
-      <c r="H3" s="25" t="s">
+      <c r="D3" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="28">
+        <v>8</v>
+      </c>
+      <c r="F3" s="28">
+        <v>8</v>
+      </c>
+      <c r="G3" s="23">
+        <v>0</v>
+      </c>
+      <c r="H3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="25" t="s">
+      <c r="I3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="25" t="s">
+      <c r="J3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="25" t="s">
+      <c r="K3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="25" t="s">
+      <c r="L3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="25" t="s">
+      <c r="N3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="25" t="s">
+      <c r="O3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="25" t="s">
+      <c r="P3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Q3" s="25" t="s">
+      <c r="Q3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="R3" s="25" t="s">
+      <c r="R3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="S3" s="25" t="s">
+      <c r="S3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="T3" s="25" t="s">
+      <c r="T3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="U3" s="25" t="s">
+      <c r="U3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="V3" s="25" t="s">
+      <c r="V3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="W3" s="25" t="s">
+      <c r="W3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="X3" s="25" t="s">
+      <c r="X3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="25" t="s">
+      <c r="Y3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="25" t="s">
+      <c r="Z3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="25" t="s">
+      <c r="AA3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AB3" s="25" t="s">
+      <c r="AB3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AC3" s="25" t="s">
+      <c r="AC3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AD3" s="25" t="s">
+      <c r="AD3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AE3" s="25" t="s">
+      <c r="AE3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="25" t="s">
+      <c r="AF3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AG3" s="25" t="s">
+      <c r="AG3" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="25" t="s">
+      <c r="AH3" s="23" t="s">
         <v>13</v>
       </c>
     </row>
@@ -5156,15 +5236,19 @@
       <c r="A4" s="17">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
-      <c r="C4" s="37" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="D4" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="19"/>
+      <c r="D4" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="28">
+        <v>8</v>
+      </c>
+      <c r="F4" s="28">
+        <v>8</v>
+      </c>
       <c r="G4" s="14">
         <v>0</v>
       </c>
@@ -5251,20 +5335,24 @@
       </c>
     </row>
     <row r="5" spans="1:34" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="23">
+      <c r="A5" s="22">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="B5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="D5" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="19"/>
+      <c r="D5" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="28">
+        <v>10</v>
+      </c>
+      <c r="F5" s="28">
+        <v>10</v>
+      </c>
       <c r="G5" s="14">
         <v>0</v>
       </c>
@@ -5351,20 +5439,24 @@
       </c>
     </row>
     <row r="6" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23">
+      <c r="A6" s="22">
         <v>7</v>
       </c>
-      <c r="B6" s="33" t="s">
+      <c r="B6" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="37" t="s">
+      <c r="C6" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="19"/>
+      <c r="D6" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E6" s="28">
+        <v>8</v>
+      </c>
+      <c r="F6" s="28">
+        <v>8</v>
+      </c>
       <c r="G6" s="14">
         <v>0</v>
       </c>
@@ -5451,18 +5543,22 @@
       </c>
     </row>
     <row r="7" spans="1:34" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23">
+      <c r="A7" s="22">
         <v>8</v>
       </c>
-      <c r="B7" s="35"/>
-      <c r="C7" s="37" t="s">
+      <c r="B7" s="41"/>
+      <c r="C7" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="D7" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E7" s="21"/>
-      <c r="F7" s="19"/>
+      <c r="D7" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="28">
+        <v>10</v>
+      </c>
+      <c r="F7" s="28">
+        <v>10</v>
+      </c>
       <c r="G7" s="14">
         <v>0</v>
       </c>
@@ -5549,16 +5645,20 @@
       </c>
     </row>
     <row r="8" spans="1:34" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="29"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="37" t="s">
+      <c r="A8" s="27"/>
+      <c r="B8" s="41"/>
+      <c r="C8" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E8" s="29"/>
-      <c r="F8" s="19"/>
+      <c r="D8" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="28">
+        <v>10</v>
+      </c>
+      <c r="F8" s="28">
+        <v>10</v>
+      </c>
       <c r="G8" s="14"/>
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
@@ -5592,15 +5692,19 @@
       <c r="A9" s="17">
         <v>9</v>
       </c>
-      <c r="B9" s="36"/>
-      <c r="C9" s="42" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="34" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="19"/>
+      <c r="D9" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E9" s="28">
+        <v>20</v>
+      </c>
+      <c r="F9" s="28">
+        <v>20</v>
+      </c>
       <c r="G9" s="14">
         <v>0</v>
       </c>
@@ -5687,20 +5791,24 @@
       </c>
     </row>
     <row r="10" spans="1:34" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="23">
+      <c r="A10" s="22">
         <v>10</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B10" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="34" t="s">
         <v>26</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="E10" s="28">
+        <v>12</v>
+      </c>
+      <c r="F10" s="28">
+        <v>12</v>
+      </c>
       <c r="G10" s="14">
         <v>0</v>
       </c>
@@ -5787,18 +5895,22 @@
       </c>
     </row>
     <row r="11" spans="1:34" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="23">
+      <c r="A11" s="22">
         <v>11</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="42" t="s">
+      <c r="B11" s="41"/>
+      <c r="C11" s="34" t="s">
         <v>27</v>
       </c>
       <c r="D11" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="E11" s="28">
+        <v>10</v>
+      </c>
+      <c r="F11" s="28">
+        <v>10</v>
+      </c>
       <c r="G11" s="14">
         <v>0</v>
       </c>
@@ -5885,16 +5997,20 @@
       </c>
     </row>
     <row r="12" spans="1:34" ht="48.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="42" t="s">
+      <c r="A12" s="27"/>
+      <c r="B12" s="41"/>
+      <c r="C12" s="34" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E12" s="29"/>
-      <c r="F12" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="E12" s="28">
+        <v>15</v>
+      </c>
+      <c r="F12" s="28">
+        <v>15</v>
+      </c>
       <c r="G12" s="14"/>
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
@@ -5928,15 +6044,19 @@
       <c r="A13" s="17">
         <v>12</v>
       </c>
-      <c r="B13" s="36"/>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="42"/>
+      <c r="C13" s="34" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19"/>
+        <v>55</v>
+      </c>
+      <c r="E13" s="28">
+        <v>20</v>
+      </c>
+      <c r="F13" s="28">
+        <v>20</v>
+      </c>
       <c r="G13" s="14">
         <v>0</v>
       </c>
@@ -6023,20 +6143,24 @@
       </c>
     </row>
     <row r="14" spans="1:34" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="23">
+      <c r="A14" s="22">
         <v>13</v>
       </c>
-      <c r="B14" s="33" t="s">
+      <c r="B14" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="D14" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="21"/>
-      <c r="F14" s="19"/>
+      <c r="D14" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="28">
+        <v>8</v>
+      </c>
+      <c r="F14" s="28">
+        <v>8</v>
+      </c>
       <c r="G14" s="14">
         <v>0</v>
       </c>
@@ -6123,18 +6247,22 @@
       </c>
     </row>
     <row r="15" spans="1:34" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="23">
+      <c r="A15" s="22">
         <v>14</v>
       </c>
-      <c r="B15" s="35"/>
-      <c r="C15" s="42" t="s">
+      <c r="B15" s="41"/>
+      <c r="C15" s="34" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E15" s="21"/>
-      <c r="F15" s="19"/>
+      <c r="D15" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="28">
+        <v>8</v>
+      </c>
+      <c r="F15" s="28">
+        <v>8</v>
+      </c>
       <c r="G15" s="14">
         <v>0</v>
       </c>
@@ -6224,15 +6352,19 @@
       <c r="A16" s="17">
         <v>15</v>
       </c>
-      <c r="B16" s="35"/>
-      <c r="C16" s="43" t="s">
+      <c r="B16" s="41"/>
+      <c r="C16" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D16" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="21"/>
-      <c r="F16" s="19"/>
+      <c r="D16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E16" s="28">
+        <v>14</v>
+      </c>
+      <c r="F16" s="28">
+        <v>14</v>
+      </c>
       <c r="G16" s="14">
         <v>0</v>
       </c>
@@ -6319,18 +6451,22 @@
       </c>
     </row>
     <row r="17" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="23">
+      <c r="A17" s="22">
         <v>16</v>
       </c>
-      <c r="B17" s="36"/>
-      <c r="C17" s="43" t="s">
+      <c r="B17" s="42"/>
+      <c r="C17" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D17" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E17" s="21"/>
-      <c r="F17" s="19"/>
+      <c r="D17" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E17" s="28">
+        <v>15</v>
+      </c>
+      <c r="F17" s="28">
+        <v>15</v>
+      </c>
       <c r="G17" s="14">
         <v>0</v>
       </c>
@@ -6417,20 +6553,24 @@
       </c>
     </row>
     <row r="18" spans="1:34" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="23">
+      <c r="A18" s="22">
         <v>17</v>
       </c>
-      <c r="B18" s="33" t="s">
+      <c r="B18" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="34" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="21"/>
-      <c r="F18" s="19"/>
+      <c r="D18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E18" s="28">
+        <v>15</v>
+      </c>
+      <c r="F18" s="28">
+        <v>15</v>
+      </c>
       <c r="G18" s="14">
         <v>0</v>
       </c>
@@ -6520,15 +6660,19 @@
       <c r="A19" s="17">
         <v>18</v>
       </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="42" t="s">
+      <c r="B19" s="38"/>
+      <c r="C19" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="21"/>
-      <c r="F19" s="19"/>
+      <c r="D19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="28">
+        <v>18</v>
+      </c>
+      <c r="F19" s="28">
+        <v>18</v>
+      </c>
       <c r="G19" s="14">
         <v>0</v>
       </c>
@@ -6615,18 +6759,22 @@
       </c>
     </row>
     <row r="20" spans="1:34" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="23">
+      <c r="A20" s="22">
         <v>19</v>
       </c>
-      <c r="B20" s="32"/>
-      <c r="C20" s="42" t="s">
+      <c r="B20" s="39"/>
+      <c r="C20" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="D20" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="E20" s="21"/>
-      <c r="F20" s="19"/>
+      <c r="D20" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E20" s="28">
+        <v>20</v>
+      </c>
+      <c r="F20" s="28">
+        <v>20</v>
+      </c>
       <c r="G20" s="14">
         <v>0</v>
       </c>
@@ -6713,20 +6861,24 @@
       </c>
     </row>
     <row r="21" spans="1:34" ht="49.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="23">
+      <c r="A21" s="22">
         <v>20</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="34" t="s">
         <v>31</v>
       </c>
       <c r="D21" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E21" s="28">
+        <v>10</v>
+      </c>
+      <c r="F21" s="28">
+        <v>10</v>
+      </c>
       <c r="G21" s="14">
         <v>0</v>
       </c>
@@ -6816,15 +6968,19 @@
       <c r="A22" s="17">
         <v>21</v>
       </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="42" t="s">
+      <c r="B22" s="40"/>
+      <c r="C22" s="34" t="s">
         <v>32</v>
       </c>
       <c r="D22" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E22" s="28">
+        <v>8</v>
+      </c>
+      <c r="F22" s="28">
+        <v>8</v>
+      </c>
       <c r="G22" s="14">
         <v>0</v>
       </c>
@@ -6914,17 +7070,21 @@
       <c r="A23" s="17">
         <v>24</v>
       </c>
-      <c r="B23" s="34" t="s">
+      <c r="B23" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="D23" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="19"/>
+      <c r="D23" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23" s="28">
+        <v>12</v>
+      </c>
+      <c r="F23" s="28">
+        <v>12</v>
+      </c>
       <c r="G23" s="14">
         <v>0</v>
       </c>
@@ -7011,18 +7171,22 @@
       </c>
     </row>
     <row r="24" spans="1:34" ht="42" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="23">
+      <c r="A24" s="22">
         <v>25</v>
       </c>
-      <c r="B24" s="34"/>
-      <c r="C24" s="42" t="s">
+      <c r="B24" s="40"/>
+      <c r="C24" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="19"/>
+      <c r="D24" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="28">
+        <v>15</v>
+      </c>
+      <c r="F24" s="28">
+        <v>15</v>
+      </c>
       <c r="G24" s="14">
         <v>0</v>
       </c>
@@ -7109,18 +7273,22 @@
       </c>
     </row>
     <row r="25" spans="1:34" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="23">
+      <c r="A25" s="22">
         <v>26</v>
       </c>
-      <c r="B25" s="34"/>
-      <c r="C25" s="44" t="s">
+      <c r="B25" s="40"/>
+      <c r="C25" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="D25" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="19"/>
+      <c r="D25" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="28">
+        <v>20</v>
+      </c>
+      <c r="F25" s="28">
+        <v>20</v>
+      </c>
       <c r="G25" s="14">
         <v>0</v>
       </c>
@@ -7210,15 +7378,19 @@
       <c r="A26" s="17">
         <v>27</v>
       </c>
-      <c r="B26" s="34"/>
+      <c r="B26" s="40"/>
       <c r="C26" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="19"/>
+      <c r="D26" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E26" s="28">
+        <v>20</v>
+      </c>
+      <c r="F26" s="28">
+        <v>20</v>
+      </c>
       <c r="G26" s="14">
         <v>0</v>
       </c>
@@ -7305,18 +7477,22 @@
       </c>
     </row>
     <row r="27" spans="1:34" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="23">
+      <c r="A27" s="22">
         <v>28</v>
       </c>
-      <c r="B27" s="30"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="16" t="s">
         <v>47</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E27" s="28">
+        <v>2</v>
+      </c>
+      <c r="F27" s="28">
+        <v>2</v>
+      </c>
       <c r="G27" s="14">
         <v>0</v>
       </c>
@@ -7403,18 +7579,22 @@
       </c>
     </row>
     <row r="28" spans="1:34" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="23">
+      <c r="A28" s="22">
         <v>29</v>
       </c>
-      <c r="B28" s="31"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="16" t="s">
         <v>48</v>
       </c>
       <c r="D28" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E28" s="28">
+        <v>2</v>
+      </c>
+      <c r="F28" s="28">
+        <v>2</v>
+      </c>
       <c r="G28" s="14">
         <v>0</v>
       </c>
@@ -7504,15 +7684,19 @@
       <c r="A29" s="17">
         <v>30</v>
       </c>
-      <c r="B29" s="31"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="16" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E29" s="28">
+        <v>2</v>
+      </c>
+      <c r="F29" s="28">
+        <v>2</v>
+      </c>
       <c r="G29" s="14">
         <v>0</v>
       </c>
@@ -7599,18 +7783,22 @@
       </c>
     </row>
     <row r="30" spans="1:34" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="23">
+      <c r="A30" s="22">
         <v>31</v>
       </c>
-      <c r="B30" s="31"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="16" t="s">
         <v>50</v>
       </c>
       <c r="D30" s="16" t="s">
-        <v>59</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="19"/>
+        <v>58</v>
+      </c>
+      <c r="E30" s="28">
+        <v>2</v>
+      </c>
+      <c r="F30" s="28">
+        <v>2</v>
+      </c>
       <c r="G30" s="14">
         <v>0</v>
       </c>
@@ -7697,18 +7885,22 @@
       </c>
     </row>
     <row r="31" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="23">
+      <c r="A31" s="22">
         <v>32</v>
       </c>
-      <c r="B31" s="31"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="D31" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="19"/>
+      <c r="D31" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="28">
+        <v>2</v>
+      </c>
+      <c r="F31" s="28">
+        <v>2</v>
+      </c>
       <c r="G31" s="14">
         <v>0</v>
       </c>
@@ -7795,16 +7987,20 @@
       </c>
     </row>
     <row r="32" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="29"/>
-      <c r="B32" s="31"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="29"/>
-      <c r="F32" s="19"/>
+      <c r="D32" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E32" s="28">
+        <v>2</v>
+      </c>
+      <c r="F32" s="28">
+        <v>2</v>
+      </c>
       <c r="G32" s="14"/>
       <c r="H32" s="14"/>
       <c r="I32" s="14"/>
@@ -7835,16 +8031,20 @@
       <c r="AH32" s="14"/>
     </row>
     <row r="33" spans="1:34" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="29"/>
-      <c r="B33" s="31"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="38"/>
       <c r="C33" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="D33" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29"/>
-      <c r="F33" s="19"/>
+        <v>53</v>
+      </c>
+      <c r="D33" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E33" s="28">
+        <v>2</v>
+      </c>
+      <c r="F33" s="28">
+        <v>2</v>
+      </c>
       <c r="G33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="14"/>
@@ -7878,15 +8078,19 @@
       <c r="A34" s="17">
         <v>33</v>
       </c>
-      <c r="B34" s="32"/>
+      <c r="B34" s="39"/>
       <c r="C34" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="21"/>
-      <c r="F34" s="19"/>
+        <v>54</v>
+      </c>
+      <c r="D34" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="28">
+        <v>2</v>
+      </c>
+      <c r="F34" s="28">
+        <v>2</v>
+      </c>
       <c r="G34" s="14">
         <v>0</v>
       </c>
@@ -7973,7 +8177,7 @@
       </c>
     </row>
     <row r="35" spans="1:34" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="23">
+      <c r="A35" s="22">
         <v>34</v>
       </c>
       <c r="B35" s="17"/>
@@ -8071,7 +8275,7 @@
       </c>
     </row>
     <row r="36" spans="1:34" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="23">
+      <c r="A36" s="22">
         <v>35</v>
       </c>
       <c r="B36" s="17"/>
@@ -8267,7 +8471,7 @@
       </c>
     </row>
     <row r="38" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="23">
+      <c r="A38" s="22">
         <v>37</v>
       </c>
       <c r="B38" s="17"/>
@@ -8365,7 +8569,7 @@
       </c>
     </row>
     <row r="39" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="23">
+      <c r="A39" s="22">
         <v>38</v>
       </c>
       <c r="B39" s="17"/>
@@ -8467,7 +8671,7 @@
       <c r="D40" s="13"/>
       <c r="E40" s="2">
         <f>SUM(E4:E38)</f>
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="F40" s="18" t="s">
         <v>4</v>

--- a/7.Print-Backlog/Sprint-3.xlsx
+++ b/7.Print-Backlog/Sprint-3.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC\Desktop\Capstone1\7.Print-Backlog\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Estimate" sheetId="1" r:id="rId1"/>
     <sheet name="Actual" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="690" uniqueCount="68">
   <si>
     <t>No</t>
   </si>
@@ -245,7 +240,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="m/d/yy"/>
   </numFmts>
@@ -538,6 +533,13 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -545,13 +547,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -572,7 +567,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -657,7 +652,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -817,7 +812,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-2AF8-4A23-9267-01C3C33CDA35}"/>
             </c:ext>
@@ -879,7 +874,7 @@
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
             <c:showLeaderLines val="0"/>
-            <c:extLst>
+            <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                 <c15:layout/>
                 <c15:showLeaderLines val="1"/>
@@ -1039,7 +1034,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-9558-43F8-9F25-424AD5B058B8}"/>
             </c:ext>
@@ -1054,12 +1049,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="212916096"/>
-        <c:axId val="212917632"/>
+        <c:axId val="214043264"/>
+        <c:axId val="214045056"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="212916096"/>
+        <c:axId val="214043264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="43435"/>
@@ -1104,14 +1100,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212917632"/>
+        <c:crossAx val="214045056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="212917632"/>
+        <c:axId val="214045056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1162,7 +1158,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="212916096"/>
+        <c:crossAx val="214043264"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1243,562 +1239,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1877,7 +1317,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1912,7 +1352,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2123,8 +1563,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView topLeftCell="A32" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2151,9 +1591,9 @@
     <col min="28" max="28" width="13" customWidth="1"/>
     <col min="29" max="29" width="13.28515625" customWidth="1"/>
     <col min="30" max="30" width="12.85546875" customWidth="1"/>
-    <col min="31" max="31" width="12.42578125" customWidth="1"/>
+    <col min="31" max="31" width="13.42578125" customWidth="1"/>
     <col min="32" max="33" width="12.85546875" customWidth="1"/>
-    <col min="34" max="34" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2256,7 +1696,7 @@
       <c r="AG1" s="3">
         <v>43434</v>
       </c>
-      <c r="AH1" s="38">
+      <c r="AH1" s="35">
         <v>43112</v>
       </c>
     </row>
@@ -2264,7 +1704,7 @@
       <c r="A2" s="8">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -2368,7 +1808,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
@@ -2385,10 +1825,10 @@
         <v>67</v>
       </c>
       <c r="H3" s="13">
+        <v>6</v>
+      </c>
+      <c r="I3" s="13">
         <v>3</v>
-      </c>
-      <c r="I3" s="13">
-        <v>0</v>
       </c>
       <c r="J3" s="13">
         <v>0</v>
@@ -2470,7 +1910,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
@@ -2478,13 +1918,13 @@
         <v>62</v>
       </c>
       <c r="E4" s="20">
-        <v>8</v>
-      </c>
-      <c r="F4" s="13">
-        <v>8</v>
-      </c>
-      <c r="G4" s="13">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H4" s="33">
         <v>0</v>
@@ -2572,21 +2012,21 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>62</v>
+      <c r="D5" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H5" s="33">
         <v>0</v>
@@ -2674,21 +2114,21 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>62</v>
+      <c r="D6" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="32">
-        <v>2</v>
-      </c>
-      <c r="F6" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G6" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H6" s="33">
         <v>0</v>
@@ -2776,38 +2216,38 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>63</v>
+      <c r="D7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="17">
         <v>9</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J7" s="13">
         <v>9</v>
       </c>
-      <c r="G7" s="13">
-        <v>9</v>
-      </c>
-      <c r="H7" s="13">
-        <v>9</v>
-      </c>
-      <c r="I7" s="33">
-        <v>0</v>
-      </c>
-      <c r="J7" s="13">
-        <v>0</v>
-      </c>
       <c r="K7" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L7" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M7" s="13">
         <v>0</v>
@@ -2880,7 +2320,7 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="24" t="s">
         <v>48</v>
       </c>
@@ -2888,18 +2328,18 @@
         <v>63</v>
       </c>
       <c r="E8" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H8" s="13">
-        <v>2</v>
-      </c>
-      <c r="I8" s="33">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>0</v>
       </c>
       <c r="J8" s="13">
@@ -2982,7 +2422,7 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="24" t="s">
         <v>49</v>
       </c>
@@ -2990,21 +2430,21 @@
         <v>63</v>
       </c>
       <c r="E9" s="32">
-        <v>2</v>
-      </c>
-      <c r="F9" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F9" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G9" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H9" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" s="13">
-        <v>1</v>
-      </c>
-      <c r="J9" s="33">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>0</v>
       </c>
       <c r="K9" s="13">
@@ -3084,7 +2524,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -3094,21 +2534,21 @@
         <v>64</v>
       </c>
       <c r="E10" s="17">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="13">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" s="13">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I10" s="13">
-        <v>8</v>
-      </c>
-      <c r="J10" s="33">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>0</v>
       </c>
       <c r="K10" s="13">
@@ -3188,7 +2628,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
@@ -3198,20 +2638,20 @@
       <c r="E11" s="20">
         <v>9</v>
       </c>
-      <c r="F11" s="13">
-        <v>9</v>
+      <c r="F11" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="G11" s="13">
         <v>9</v>
       </c>
       <c r="H11" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="I11" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="J11" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K11" s="33">
         <v>0</v>
@@ -3290,7 +2730,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="24" t="s">
         <v>42</v>
       </c>
@@ -3300,26 +2740,26 @@
       <c r="E12" s="22">
         <v>9</v>
       </c>
-      <c r="F12" s="13">
-        <v>9</v>
-      </c>
-      <c r="G12" s="13">
-        <v>9</v>
-      </c>
-      <c r="H12" s="13">
-        <v>9</v>
-      </c>
-      <c r="I12" s="13">
-        <v>9</v>
+      <c r="F12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="J12" s="13">
         <v>9</v>
       </c>
       <c r="K12" s="13">
+        <v>6</v>
+      </c>
+      <c r="L12" s="33">
         <v>3</v>
-      </c>
-      <c r="L12" s="33">
-        <v>0</v>
       </c>
       <c r="M12" s="13">
         <v>0</v>
@@ -3392,7 +2832,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="29" t="s">
         <v>43</v>
       </c>
@@ -3400,40 +2840,40 @@
         <v>64</v>
       </c>
       <c r="E13" s="17">
-        <v>18</v>
-      </c>
-      <c r="F13" s="13">
-        <v>18</v>
-      </c>
-      <c r="G13" s="13">
-        <v>18</v>
-      </c>
-      <c r="H13" s="13">
-        <v>18</v>
-      </c>
-      <c r="I13" s="13">
-        <v>18</v>
-      </c>
-      <c r="J13" s="13">
-        <v>18</v>
-      </c>
-      <c r="K13" s="13">
-        <v>18</v>
-      </c>
-      <c r="L13" s="13">
+        <v>12</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L13" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M13" s="33">
+        <v>12</v>
+      </c>
+      <c r="N13" s="13">
         <v>9</v>
       </c>
-      <c r="M13" s="33">
-        <v>0</v>
-      </c>
-      <c r="N13" s="13">
-        <v>0</v>
-      </c>
       <c r="O13" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P13" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q13" s="13">
         <v>0</v>
@@ -3494,38 +2934,38 @@
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>65</v>
+      <c r="D14" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="32">
-        <v>2</v>
-      </c>
-      <c r="F14" s="13">
-        <v>2</v>
-      </c>
-      <c r="G14" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H14" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I14" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J14" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K14" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="13">
-        <v>2</v>
-      </c>
-      <c r="M14" s="33">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
         <v>0</v>
       </c>
       <c r="N14" s="13">
@@ -3596,41 +3036,41 @@
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
+      <c r="D15" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="32">
-        <v>2</v>
-      </c>
-      <c r="F15" s="13">
-        <v>2</v>
-      </c>
-      <c r="G15" s="13">
-        <v>2</v>
-      </c>
-      <c r="H15" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G15" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="I15" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K15" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L15" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M15" s="13">
-        <v>1</v>
-      </c>
-      <c r="N15" s="33">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
         <v>0</v>
       </c>
       <c r="O15" s="13">
@@ -3698,7 +3138,7 @@
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="29" t="s">
@@ -3708,40 +3148,40 @@
         <v>62</v>
       </c>
       <c r="E16" s="19">
-        <v>12</v>
-      </c>
-      <c r="F16" s="13">
-        <v>12</v>
-      </c>
-      <c r="G16" s="13">
-        <v>12</v>
-      </c>
-      <c r="H16" s="13">
-        <v>12</v>
-      </c>
-      <c r="I16" s="13">
-        <v>12</v>
-      </c>
-      <c r="J16" s="13">
-        <v>12</v>
-      </c>
-      <c r="K16" s="13">
-        <v>12</v>
-      </c>
-      <c r="L16" s="13">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K16" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="M16" s="13">
         <v>12</v>
       </c>
       <c r="N16" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="O16" s="33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P16" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q16" s="13">
         <v>0</v>
@@ -3802,7 +3242,7 @@
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
@@ -3810,55 +3250,55 @@
         <v>62</v>
       </c>
       <c r="E17" s="17">
-        <v>10</v>
-      </c>
-      <c r="F17" s="13">
-        <v>10</v>
-      </c>
-      <c r="G17" s="13">
-        <v>10</v>
-      </c>
-      <c r="H17" s="13">
-        <v>10</v>
-      </c>
-      <c r="I17" s="13">
-        <v>10</v>
-      </c>
-      <c r="J17" s="13">
-        <v>10</v>
-      </c>
-      <c r="K17" s="13">
-        <v>10</v>
-      </c>
-      <c r="L17" s="13">
-        <v>10</v>
-      </c>
-      <c r="M17" s="13">
-        <v>10</v>
-      </c>
-      <c r="N17" s="13">
-        <v>10</v>
-      </c>
-      <c r="O17" s="33">
-        <v>0</v>
-      </c>
-      <c r="P17" s="13">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O17" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P17" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="Q17" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="R17" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="S17" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="T17" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U17" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V17" s="13">
         <v>0</v>
@@ -3904,7 +3344,7 @@
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="29" t="s">
         <v>27</v>
       </c>
@@ -3914,68 +3354,68 @@
       <c r="E18" s="22">
         <v>15</v>
       </c>
-      <c r="F18" s="13">
-        <v>15</v>
-      </c>
-      <c r="G18" s="13">
-        <v>15</v>
-      </c>
-      <c r="H18" s="13">
-        <v>15</v>
-      </c>
-      <c r="I18" s="13">
-        <v>15</v>
-      </c>
-      <c r="J18" s="13">
-        <v>15</v>
-      </c>
-      <c r="K18" s="13">
-        <v>15</v>
-      </c>
-      <c r="L18" s="13">
-        <v>15</v>
-      </c>
-      <c r="M18" s="13">
-        <v>15</v>
-      </c>
-      <c r="N18" s="13">
-        <v>15</v>
-      </c>
-      <c r="O18" s="13">
-        <v>14</v>
-      </c>
-      <c r="P18" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q18" s="33">
-        <v>0</v>
-      </c>
-      <c r="R18" s="13">
-        <v>0</v>
-      </c>
-      <c r="S18" s="13">
-        <v>0</v>
-      </c>
-      <c r="T18" s="13">
-        <v>0</v>
-      </c>
-      <c r="U18" s="13">
-        <v>0</v>
+      <c r="F18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U18" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="V18" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="W18" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="X18" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="Y18" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z18" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA18" s="13">
         <v>0</v>
@@ -4006,7 +3446,7 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="29" t="s">
         <v>28</v>
       </c>
@@ -4014,85 +3454,85 @@
         <v>62</v>
       </c>
       <c r="E19" s="17">
-        <v>20</v>
-      </c>
-      <c r="F19" s="13">
-        <v>20</v>
-      </c>
-      <c r="G19" s="13">
-        <v>20</v>
-      </c>
-      <c r="H19" s="13">
-        <v>20</v>
-      </c>
-      <c r="I19" s="13">
-        <v>20</v>
-      </c>
-      <c r="J19" s="13">
-        <v>20</v>
-      </c>
-      <c r="K19" s="13">
-        <v>20</v>
-      </c>
-      <c r="L19" s="13">
-        <v>20</v>
-      </c>
-      <c r="M19" s="13">
-        <v>20</v>
-      </c>
-      <c r="N19" s="13">
-        <v>20</v>
-      </c>
-      <c r="O19" s="13">
-        <v>20</v>
-      </c>
-      <c r="P19" s="13">
-        <v>20</v>
-      </c>
-      <c r="Q19" s="13">
-        <v>10</v>
-      </c>
-      <c r="R19" s="33">
-        <v>0</v>
-      </c>
-      <c r="S19" s="13">
-        <v>0</v>
-      </c>
-      <c r="T19" s="13">
-        <v>0</v>
-      </c>
-      <c r="U19" s="13">
-        <v>0</v>
-      </c>
-      <c r="V19" s="13">
-        <v>0</v>
-      </c>
-      <c r="W19" s="13">
-        <v>0</v>
-      </c>
-      <c r="X19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="13">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y19" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z19" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AA19" s="13">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="AB19" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AC19" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AD19" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE19" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AF19" s="13">
         <v>0</v>
@@ -4108,53 +3548,53 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="25" t="s">
-        <v>62</v>
+      <c r="D20" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E20" s="32">
-        <v>2</v>
-      </c>
-      <c r="F20" s="13">
-        <v>2</v>
-      </c>
-      <c r="G20" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="H20" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P20" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q20" s="13">
-        <v>2</v>
-      </c>
-      <c r="R20" s="33">
+        <v>0</v>
+      </c>
+      <c r="R20" s="13">
         <v>0</v>
       </c>
       <c r="S20" s="13">
@@ -4210,56 +3650,56 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="25" t="s">
-        <v>62</v>
+      <c r="D21" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E21" s="32">
-        <v>2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>2</v>
-      </c>
-      <c r="G21" s="13">
-        <v>2</v>
-      </c>
-      <c r="H21" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="I21" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R21" s="13">
-        <v>2</v>
-      </c>
-      <c r="S21" s="33">
+        <v>0</v>
+      </c>
+      <c r="S21" s="13">
         <v>0</v>
       </c>
       <c r="T21" s="13">
@@ -4312,7 +3752,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -4322,49 +3762,49 @@
         <v>64</v>
       </c>
       <c r="E22" s="19">
-        <v>8</v>
-      </c>
-      <c r="F22" s="13">
-        <v>8</v>
-      </c>
-      <c r="G22" s="13">
-        <v>8</v>
-      </c>
-      <c r="H22" s="13">
-        <v>8</v>
-      </c>
-      <c r="I22" s="13">
-        <v>8</v>
-      </c>
-      <c r="J22" s="13">
-        <v>8</v>
-      </c>
-      <c r="K22" s="13">
-        <v>8</v>
-      </c>
-      <c r="L22" s="13">
-        <v>8</v>
-      </c>
-      <c r="M22" s="13">
-        <v>8</v>
-      </c>
-      <c r="N22" s="13">
-        <v>8</v>
-      </c>
-      <c r="O22" s="13">
-        <v>8</v>
-      </c>
-      <c r="P22" s="13">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="F22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O22" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P22" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="Q22" s="13">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R22" s="13">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="S22" s="33">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T22" s="13">
         <v>0</v>
@@ -4416,7 +3856,7 @@
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="29" t="s">
         <v>34</v>
       </c>
@@ -4424,55 +3864,55 @@
         <v>64</v>
       </c>
       <c r="E23" s="17">
-        <v>8</v>
-      </c>
-      <c r="F23" s="13">
-        <v>8</v>
-      </c>
-      <c r="G23" s="13">
-        <v>8</v>
-      </c>
-      <c r="H23" s="13">
-        <v>8</v>
-      </c>
-      <c r="I23" s="13">
-        <v>8</v>
-      </c>
-      <c r="J23" s="13">
-        <v>8</v>
-      </c>
-      <c r="K23" s="13">
-        <v>8</v>
-      </c>
-      <c r="L23" s="13">
-        <v>8</v>
-      </c>
-      <c r="M23" s="13">
-        <v>8</v>
-      </c>
-      <c r="N23" s="13">
-        <v>8</v>
-      </c>
-      <c r="O23" s="13">
-        <v>8</v>
-      </c>
-      <c r="P23" s="13">
-        <v>8</v>
-      </c>
-      <c r="Q23" s="13">
-        <v>8</v>
-      </c>
-      <c r="R23" s="13">
-        <v>8</v>
-      </c>
-      <c r="S23" s="13">
         <v>6</v>
       </c>
+      <c r="F23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R23" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S23" s="13" t="s">
+        <v>67</v>
+      </c>
       <c r="T23" s="33">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="U23" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V23" s="13">
         <v>0</v>
@@ -4518,7 +3958,7 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
@@ -4526,67 +3966,67 @@
         <v>64</v>
       </c>
       <c r="E24" s="17">
-        <v>14</v>
-      </c>
-      <c r="F24" s="13">
-        <v>14</v>
-      </c>
-      <c r="G24" s="13">
-        <v>14</v>
-      </c>
-      <c r="H24" s="13">
-        <v>14</v>
-      </c>
-      <c r="I24" s="13">
-        <v>14</v>
-      </c>
-      <c r="J24" s="13">
-        <v>14</v>
-      </c>
-      <c r="K24" s="13">
-        <v>14</v>
-      </c>
-      <c r="L24" s="13">
-        <v>14</v>
-      </c>
-      <c r="M24" s="13">
-        <v>14</v>
-      </c>
-      <c r="N24" s="13">
-        <v>14</v>
-      </c>
-      <c r="O24" s="13">
-        <v>14</v>
-      </c>
-      <c r="P24" s="13">
-        <v>14</v>
-      </c>
-      <c r="Q24" s="13">
-        <v>14</v>
-      </c>
-      <c r="R24" s="13">
-        <v>14</v>
-      </c>
-      <c r="S24" s="13">
-        <v>14</v>
-      </c>
-      <c r="T24" s="13">
-        <v>8</v>
-      </c>
-      <c r="U24" s="33">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T24" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U24" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="V24" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="W24" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X24" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Y24" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z24" s="13">
         <v>0</v>
@@ -4620,7 +4060,7 @@
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
@@ -4628,82 +4068,82 @@
         <v>64</v>
       </c>
       <c r="E25" s="17">
-        <v>15</v>
-      </c>
-      <c r="F25" s="13">
-        <v>15</v>
-      </c>
-      <c r="G25" s="13">
-        <v>15</v>
-      </c>
-      <c r="H25" s="13">
-        <v>15</v>
-      </c>
-      <c r="I25" s="13">
-        <v>15</v>
-      </c>
-      <c r="J25" s="13">
-        <v>15</v>
-      </c>
-      <c r="K25" s="13">
-        <v>15</v>
-      </c>
-      <c r="L25" s="13">
-        <v>15</v>
-      </c>
-      <c r="M25" s="13">
-        <v>15</v>
-      </c>
-      <c r="N25" s="13">
-        <v>15</v>
-      </c>
-      <c r="O25" s="13">
-        <v>15</v>
-      </c>
-      <c r="P25" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="13">
-        <v>15</v>
-      </c>
-      <c r="R25" s="13">
-        <v>15</v>
-      </c>
-      <c r="S25" s="13">
-        <v>15</v>
-      </c>
-      <c r="T25" s="13">
-        <v>15</v>
-      </c>
-      <c r="U25" s="13">
+        <v>14</v>
+      </c>
+      <c r="F25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z25" s="13">
+        <v>14</v>
+      </c>
+      <c r="AA25" s="13">
         <v>11</v>
       </c>
-      <c r="V25" s="33">
-        <v>0</v>
-      </c>
-      <c r="W25" s="13">
-        <v>0</v>
-      </c>
-      <c r="X25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z25" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA25" s="13">
-        <v>0</v>
-      </c>
       <c r="AB25" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AC25" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AD25" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AE25" s="13">
         <v>0</v>
@@ -4722,7 +4162,7 @@
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="24" t="s">
         <v>54</v>
       </c>
@@ -4730,60 +4170,60 @@
         <v>65</v>
       </c>
       <c r="E26" s="32">
-        <v>2</v>
-      </c>
-      <c r="F26" s="13">
-        <v>2</v>
-      </c>
-      <c r="G26" s="13">
-        <v>2</v>
-      </c>
-      <c r="H26" s="13">
-        <v>2</v>
-      </c>
-      <c r="I26" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="J26" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U26" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V26" s="13">
-        <v>1</v>
-      </c>
-      <c r="W26" s="33">
+        <v>0</v>
+      </c>
+      <c r="W26" s="13">
         <v>0</v>
       </c>
       <c r="X26" s="13">
@@ -4824,7 +4264,7 @@
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="24" t="s">
         <v>55</v>
       </c>
@@ -4832,60 +4272,60 @@
         <v>65</v>
       </c>
       <c r="E27" s="32">
-        <v>2</v>
-      </c>
-      <c r="F27" s="13">
-        <v>2</v>
-      </c>
-      <c r="G27" s="13">
-        <v>2</v>
-      </c>
-      <c r="H27" s="13">
-        <v>2</v>
-      </c>
-      <c r="I27" s="13">
-        <v>2</v>
-      </c>
-      <c r="J27" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="K27" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U27" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V27" s="13">
-        <v>2</v>
-      </c>
-      <c r="W27" s="33">
+        <v>0</v>
+      </c>
+      <c r="W27" s="13">
         <v>0</v>
       </c>
       <c r="X27" s="13">
@@ -4926,7 +4366,7 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -4936,88 +4376,88 @@
         <v>64</v>
       </c>
       <c r="E28" s="17">
-        <v>15</v>
-      </c>
-      <c r="F28" s="13">
-        <v>15</v>
-      </c>
-      <c r="G28" s="13">
-        <v>15</v>
-      </c>
-      <c r="H28" s="13">
-        <v>15</v>
-      </c>
-      <c r="I28" s="13">
-        <v>15</v>
-      </c>
-      <c r="J28" s="13">
-        <v>15</v>
-      </c>
-      <c r="K28" s="13">
-        <v>15</v>
-      </c>
-      <c r="L28" s="13">
-        <v>15</v>
-      </c>
-      <c r="M28" s="13">
-        <v>15</v>
-      </c>
-      <c r="N28" s="13">
-        <v>15</v>
-      </c>
-      <c r="O28" s="13">
-        <v>15</v>
-      </c>
-      <c r="P28" s="13">
-        <v>15</v>
-      </c>
-      <c r="Q28" s="13">
-        <v>15</v>
-      </c>
-      <c r="R28" s="13">
-        <v>15</v>
-      </c>
-      <c r="S28" s="13">
-        <v>15</v>
-      </c>
-      <c r="T28" s="13">
-        <v>15</v>
-      </c>
-      <c r="U28" s="13">
-        <v>15</v>
-      </c>
-      <c r="V28" s="13">
-        <v>15</v>
-      </c>
-      <c r="W28" s="13">
         <v>6</v>
       </c>
-      <c r="X28" s="33">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB28" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC28" s="13">
-        <v>0</v>
+      <c r="F28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB28" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC28" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AD28" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AE28" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AF28" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG28" s="13">
         <v>0</v>
@@ -5030,7 +4470,7 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="29" t="s">
         <v>39</v>
       </c>
@@ -5038,91 +4478,91 @@
         <v>64</v>
       </c>
       <c r="E29" s="17">
-        <v>18</v>
-      </c>
-      <c r="F29" s="13">
-        <v>18</v>
-      </c>
-      <c r="G29" s="13">
-        <v>18</v>
-      </c>
-      <c r="H29" s="13">
-        <v>18</v>
-      </c>
-      <c r="I29" s="13">
-        <v>18</v>
-      </c>
-      <c r="J29" s="13">
-        <v>18</v>
-      </c>
-      <c r="K29" s="13">
-        <v>18</v>
-      </c>
-      <c r="L29" s="13">
-        <v>18</v>
-      </c>
-      <c r="M29" s="13">
-        <v>18</v>
-      </c>
-      <c r="N29" s="13">
-        <v>18</v>
-      </c>
-      <c r="O29" s="13">
-        <v>18</v>
-      </c>
-      <c r="P29" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q29" s="13">
-        <v>18</v>
-      </c>
-      <c r="R29" s="13">
-        <v>18</v>
-      </c>
-      <c r="S29" s="13">
-        <v>18</v>
-      </c>
-      <c r="T29" s="13">
-        <v>18</v>
-      </c>
-      <c r="U29" s="13">
-        <v>18</v>
-      </c>
-      <c r="V29" s="13">
-        <v>18</v>
-      </c>
-      <c r="W29" s="13">
-        <v>18</v>
-      </c>
-      <c r="X29" s="13">
-        <v>12</v>
-      </c>
-      <c r="Y29" s="33">
-        <v>0</v>
-      </c>
-      <c r="Z29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD29" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE29" s="13">
-        <v>0</v>
+        <v>9</v>
+      </c>
+      <c r="F29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD29" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE29" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AF29" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG29" s="13">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AH29" s="13">
         <v>0</v>
@@ -5132,7 +4572,7 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="29" t="s">
         <v>40</v>
       </c>
@@ -5140,88 +4580,88 @@
         <v>64</v>
       </c>
       <c r="E30" s="17">
-        <v>18</v>
-      </c>
-      <c r="F30" s="13">
-        <v>18</v>
-      </c>
-      <c r="G30" s="13">
-        <v>18</v>
-      </c>
-      <c r="H30" s="13">
-        <v>18</v>
-      </c>
-      <c r="I30" s="13">
-        <v>18</v>
-      </c>
-      <c r="J30" s="13">
-        <v>18</v>
-      </c>
-      <c r="K30" s="13">
-        <v>18</v>
-      </c>
-      <c r="L30" s="13">
-        <v>18</v>
-      </c>
-      <c r="M30" s="13">
-        <v>18</v>
-      </c>
-      <c r="N30" s="13">
-        <v>18</v>
-      </c>
-      <c r="O30" s="13">
-        <v>18</v>
-      </c>
-      <c r="P30" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q30" s="13">
-        <v>18</v>
-      </c>
-      <c r="R30" s="13">
-        <v>18</v>
-      </c>
-      <c r="S30" s="13">
-        <v>18</v>
-      </c>
-      <c r="T30" s="13">
-        <v>18</v>
-      </c>
-      <c r="U30" s="13">
-        <v>18</v>
-      </c>
-      <c r="V30" s="13">
-        <v>18</v>
-      </c>
-      <c r="W30" s="13">
-        <v>18</v>
-      </c>
-      <c r="X30" s="13">
-        <v>18</v>
-      </c>
-      <c r="Y30" s="13">
-        <v>18</v>
-      </c>
-      <c r="Z30" s="13">
-        <v>6</v>
-      </c>
-      <c r="AA30" s="33">
-        <v>0</v>
-      </c>
-      <c r="AB30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC30" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD30" s="13">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC30" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD30" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AE30" s="13">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AF30" s="13">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="AG30" s="13">
         <v>0</v>
@@ -5234,80 +4674,80 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>64</v>
+      <c r="D31" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="32">
-        <v>2</v>
-      </c>
-      <c r="F31" s="13">
-        <v>2</v>
-      </c>
-      <c r="G31" s="13">
-        <v>2</v>
-      </c>
-      <c r="H31" s="13">
-        <v>2</v>
-      </c>
-      <c r="I31" s="13">
-        <v>2</v>
-      </c>
-      <c r="J31" s="13">
-        <v>2</v>
-      </c>
-      <c r="K31" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J31" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K31" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="L31" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y31" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA31" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="13">
         <v>0</v>
       </c>
       <c r="AB31" s="13">
@@ -5336,80 +4776,80 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>64</v>
+      <c r="D32" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="32">
-        <v>2</v>
-      </c>
-      <c r="F32" s="13">
-        <v>2</v>
-      </c>
-      <c r="G32" s="13">
-        <v>2</v>
-      </c>
-      <c r="H32" s="13">
-        <v>2</v>
-      </c>
-      <c r="I32" s="13">
-        <v>2</v>
-      </c>
-      <c r="J32" s="13">
-        <v>2</v>
-      </c>
-      <c r="K32" s="13">
-        <v>2</v>
-      </c>
-      <c r="L32" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K32" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L32" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="M32" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z32" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA32" s="33">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="13">
         <v>0</v>
       </c>
       <c r="AB32" s="13">
@@ -5438,7 +4878,7 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -5448,75 +4888,75 @@
         <v>65</v>
       </c>
       <c r="E33" s="17">
-        <v>9</v>
-      </c>
-      <c r="F33" s="13">
-        <v>9</v>
-      </c>
-      <c r="G33" s="13">
-        <v>9</v>
-      </c>
-      <c r="H33" s="13">
-        <v>9</v>
-      </c>
-      <c r="I33" s="13">
-        <v>9</v>
-      </c>
-      <c r="J33" s="13">
-        <v>9</v>
-      </c>
-      <c r="K33" s="13">
-        <v>9</v>
-      </c>
-      <c r="L33" s="13">
-        <v>9</v>
-      </c>
-      <c r="M33" s="13">
-        <v>9</v>
+        <v>21</v>
+      </c>
+      <c r="F33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L33" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="N33" s="13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="O33" s="13">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="P33" s="13">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q33" s="13">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="R33" s="13">
         <v>9</v>
       </c>
       <c r="S33" s="13">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="T33" s="13">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="U33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="V33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="W33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="X33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Y33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="13">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA33" s="13">
-        <v>7</v>
-      </c>
-      <c r="AB33" s="33">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="13">
         <v>0</v>
       </c>
       <c r="AC33" s="13">
@@ -5542,7 +4982,7 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="29" t="s">
         <v>31</v>
       </c>
@@ -5550,76 +4990,76 @@
         <v>65</v>
       </c>
       <c r="E34" s="17">
-        <v>6</v>
-      </c>
-      <c r="F34" s="13">
-        <v>6</v>
-      </c>
-      <c r="G34" s="13">
-        <v>6</v>
-      </c>
-      <c r="H34" s="13">
-        <v>6</v>
-      </c>
-      <c r="I34" s="13">
-        <v>6</v>
-      </c>
-      <c r="J34" s="13">
-        <v>6</v>
-      </c>
-      <c r="K34" s="13">
-        <v>6</v>
-      </c>
-      <c r="L34" s="13">
-        <v>6</v>
-      </c>
-      <c r="M34" s="13">
-        <v>6</v>
-      </c>
-      <c r="N34" s="13">
-        <v>6</v>
-      </c>
-      <c r="O34" s="13">
-        <v>6</v>
-      </c>
-      <c r="P34" s="13">
-        <v>6</v>
-      </c>
-      <c r="Q34" s="13">
-        <v>6</v>
-      </c>
-      <c r="R34" s="13">
-        <v>6</v>
-      </c>
-      <c r="S34" s="13">
-        <v>6</v>
-      </c>
-      <c r="T34" s="13">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="F34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S34" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T34" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="U34" s="13">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="V34" s="13">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="W34" s="13">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="X34" s="13">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="Y34" s="13">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="Z34" s="13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AA34" s="13">
         <v>6</v>
       </c>
       <c r="AB34" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AC34" s="33">
         <v>0</v>
@@ -5644,86 +5084,86 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>65</v>
+      <c r="D35" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E35" s="32">
-        <v>2</v>
-      </c>
-      <c r="F35" s="13">
-        <v>2</v>
-      </c>
-      <c r="G35" s="13">
-        <v>2</v>
-      </c>
-      <c r="H35" s="13">
-        <v>2</v>
-      </c>
-      <c r="I35" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H35" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I35" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="J35" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA35" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB35" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC35" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="13">
         <v>0</v>
       </c>
       <c r="AD35" s="13">
@@ -5746,86 +5186,86 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>65</v>
+      <c r="D36" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E36" s="32">
-        <v>2</v>
-      </c>
-      <c r="F36" s="13">
-        <v>2</v>
-      </c>
-      <c r="G36" s="13">
-        <v>2</v>
-      </c>
-      <c r="H36" s="13">
-        <v>2</v>
-      </c>
-      <c r="I36" s="13">
-        <v>2</v>
-      </c>
-      <c r="J36" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I36" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="K36" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="M36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="T36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="W36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA36" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB36" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC36" s="33">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="13">
         <v>0</v>
       </c>
       <c r="AD36" s="13">
@@ -5848,7 +5288,7 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -5858,81 +5298,81 @@
         <v>63</v>
       </c>
       <c r="E37" s="17">
-        <v>12</v>
-      </c>
-      <c r="F37" s="13">
-        <v>12</v>
-      </c>
-      <c r="G37" s="13">
-        <v>12</v>
-      </c>
-      <c r="H37" s="13">
-        <v>12</v>
-      </c>
-      <c r="I37" s="13">
-        <v>12</v>
-      </c>
-      <c r="J37" s="13">
-        <v>12</v>
-      </c>
-      <c r="K37" s="13">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="L37" s="13">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="M37" s="13">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="N37" s="13">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="O37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="P37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Q37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="R37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="S37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="T37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="U37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="V37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="W37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="X37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Y37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="Z37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AA37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AB37" s="13">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AC37" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD37" s="33">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="13">
         <v>0</v>
       </c>
       <c r="AE37" s="13">
@@ -5952,7 +5392,7 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="29" t="s">
         <v>33</v>
       </c>
@@ -5962,82 +5402,82 @@
       <c r="E38" s="23">
         <v>15</v>
       </c>
-      <c r="F38" s="13">
-        <v>15</v>
-      </c>
-      <c r="G38" s="13">
-        <v>15</v>
-      </c>
-      <c r="H38" s="13">
-        <v>15</v>
-      </c>
-      <c r="I38" s="13">
-        <v>15</v>
-      </c>
-      <c r="J38" s="13">
-        <v>15</v>
-      </c>
-      <c r="K38" s="13">
-        <v>15</v>
-      </c>
-      <c r="L38" s="13">
-        <v>15</v>
-      </c>
-      <c r="M38" s="13">
-        <v>15</v>
-      </c>
-      <c r="N38" s="13">
-        <v>15</v>
+      <c r="F38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="O38" s="13">
         <v>15</v>
       </c>
       <c r="P38" s="13">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="Q38" s="13">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="R38" s="13">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="S38" s="13">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="T38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="U38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="V38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="W38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="X38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Y38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Z38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AA38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AB38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AC38" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AD38" s="13">
-        <v>8</v>
-      </c>
-      <c r="AE38" s="33">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="13">
         <v>0</v>
       </c>
       <c r="AF38" s="13">
@@ -6054,7 +5494,7 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="31" t="s">
         <v>45</v>
       </c>
@@ -6062,90 +5502,90 @@
         <v>63</v>
       </c>
       <c r="E39" s="23">
-        <v>18</v>
-      </c>
-      <c r="F39" s="13">
-        <v>18</v>
-      </c>
-      <c r="G39" s="13">
-        <v>18</v>
-      </c>
-      <c r="H39" s="13">
-        <v>18</v>
-      </c>
-      <c r="I39" s="13">
-        <v>18</v>
-      </c>
-      <c r="J39" s="13">
-        <v>18</v>
-      </c>
-      <c r="K39" s="13">
-        <v>18</v>
-      </c>
-      <c r="L39" s="13">
-        <v>18</v>
-      </c>
-      <c r="M39" s="13">
-        <v>18</v>
-      </c>
-      <c r="N39" s="13">
-        <v>18</v>
-      </c>
-      <c r="O39" s="13">
-        <v>18</v>
-      </c>
-      <c r="P39" s="13">
-        <v>18</v>
-      </c>
-      <c r="Q39" s="13">
-        <v>18</v>
-      </c>
-      <c r="R39" s="13">
-        <v>18</v>
-      </c>
-      <c r="S39" s="13">
-        <v>18</v>
+        <v>15</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R39" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S39" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="T39" s="13">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="U39" s="13">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="V39" s="13">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="W39" s="13">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="X39" s="13">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="Y39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="Z39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AA39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AB39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AC39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AD39" s="13">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="AE39" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF39" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG39" s="33">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="13">
         <v>0</v>
       </c>
       <c r="AH39" s="13">
@@ -6156,7 +5596,7 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="15" t="s">
         <v>44</v>
       </c>
@@ -6164,93 +5604,93 @@
         <v>63</v>
       </c>
       <c r="E40" s="17">
-        <v>14</v>
-      </c>
-      <c r="F40" s="13">
-        <v>14</v>
-      </c>
-      <c r="G40" s="13">
-        <v>14</v>
-      </c>
-      <c r="H40" s="13">
-        <v>14</v>
-      </c>
-      <c r="I40" s="13">
-        <v>14</v>
-      </c>
-      <c r="J40" s="13">
-        <v>14</v>
-      </c>
-      <c r="K40" s="13">
-        <v>14</v>
-      </c>
-      <c r="L40" s="13">
-        <v>14</v>
-      </c>
-      <c r="M40" s="13">
-        <v>14</v>
-      </c>
-      <c r="N40" s="13">
-        <v>14</v>
-      </c>
-      <c r="O40" s="13">
-        <v>14</v>
-      </c>
-      <c r="P40" s="13">
-        <v>14</v>
-      </c>
-      <c r="Q40" s="13">
-        <v>14</v>
-      </c>
-      <c r="R40" s="13">
-        <v>14</v>
-      </c>
-      <c r="S40" s="13">
-        <v>14</v>
-      </c>
-      <c r="T40" s="13">
-        <v>14</v>
-      </c>
-      <c r="U40" s="13">
-        <v>14</v>
-      </c>
-      <c r="V40" s="13">
-        <v>14</v>
-      </c>
-      <c r="W40" s="13">
-        <v>14</v>
-      </c>
-      <c r="X40" s="13">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="F40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W40" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X40" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="Y40" s="13">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="Z40" s="13">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="AA40" s="13">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AB40" s="13">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="AC40" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AD40" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE40" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AF40" s="13">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AG40" s="13">
-        <v>4</v>
-      </c>
-      <c r="AH40" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6258,101 +5698,101 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>63</v>
+      <c r="D41" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="32">
-        <v>2</v>
-      </c>
-      <c r="F41" s="13">
-        <v>2</v>
-      </c>
-      <c r="G41" s="13">
-        <v>2</v>
-      </c>
-      <c r="H41" s="13">
-        <v>2</v>
-      </c>
-      <c r="I41" s="13">
-        <v>2</v>
-      </c>
-      <c r="J41" s="13">
-        <v>2</v>
-      </c>
-      <c r="K41" s="13">
-        <v>2</v>
-      </c>
-      <c r="L41" s="13">
-        <v>2</v>
-      </c>
-      <c r="M41" s="13">
-        <v>2</v>
-      </c>
-      <c r="N41" s="13">
-        <v>2</v>
-      </c>
-      <c r="O41" s="13">
-        <v>2</v>
-      </c>
-      <c r="P41" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q41" s="13">
-        <v>2</v>
-      </c>
-      <c r="R41" s="13">
-        <v>2</v>
-      </c>
-      <c r="S41" s="13">
-        <v>2</v>
-      </c>
-      <c r="T41" s="13">
-        <v>2</v>
-      </c>
-      <c r="U41" s="13">
-        <v>2</v>
-      </c>
-      <c r="V41" s="13">
-        <v>2</v>
-      </c>
-      <c r="W41" s="13">
-        <v>2</v>
-      </c>
-      <c r="X41" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y41" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB41" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA41" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB41" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AC41" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AE41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF41" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG41" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH41" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6360,101 +5800,101 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>63</v>
+      <c r="D42" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="32">
-        <v>2</v>
-      </c>
-      <c r="F42" s="13">
-        <v>2</v>
-      </c>
-      <c r="G42" s="13">
-        <v>2</v>
-      </c>
-      <c r="H42" s="13">
-        <v>2</v>
-      </c>
-      <c r="I42" s="13">
-        <v>2</v>
-      </c>
-      <c r="J42" s="13">
-        <v>2</v>
-      </c>
-      <c r="K42" s="13">
-        <v>2</v>
-      </c>
-      <c r="L42" s="13">
-        <v>2</v>
-      </c>
-      <c r="M42" s="13">
-        <v>2</v>
-      </c>
-      <c r="N42" s="13">
-        <v>2</v>
-      </c>
-      <c r="O42" s="13">
-        <v>2</v>
-      </c>
-      <c r="P42" s="13">
-        <v>2</v>
-      </c>
-      <c r="Q42" s="13">
-        <v>2</v>
-      </c>
-      <c r="R42" s="13">
-        <v>2</v>
-      </c>
-      <c r="S42" s="13">
-        <v>2</v>
-      </c>
-      <c r="T42" s="13">
-        <v>2</v>
-      </c>
-      <c r="U42" s="13">
-        <v>2</v>
-      </c>
-      <c r="V42" s="13">
-        <v>2</v>
-      </c>
-      <c r="W42" s="13">
-        <v>2</v>
-      </c>
-      <c r="X42" s="13">
-        <v>2</v>
-      </c>
-      <c r="Y42" s="13">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA42" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB42" s="13">
-        <v>2</v>
-      </c>
-      <c r="AC42" s="13">
-        <v>2</v>
+        <v>3</v>
+      </c>
+      <c r="F42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB42" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC42" s="13" t="s">
+        <v>67</v>
       </c>
       <c r="AD42" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AE42" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF42" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AG42" s="13">
-        <v>2</v>
-      </c>
-      <c r="AH42" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6472,88 +5912,88 @@
       <c r="E43" s="17">
         <v>1</v>
       </c>
-      <c r="F43" s="32">
-        <v>1</v>
-      </c>
-      <c r="G43" s="32">
-        <v>1</v>
-      </c>
-      <c r="H43" s="32">
-        <v>1</v>
-      </c>
-      <c r="I43" s="32">
-        <v>1</v>
-      </c>
-      <c r="J43" s="32">
-        <v>1</v>
-      </c>
-      <c r="K43" s="32">
-        <v>1</v>
-      </c>
-      <c r="L43" s="32">
-        <v>1</v>
-      </c>
-      <c r="M43" s="32">
-        <v>1</v>
-      </c>
-      <c r="N43" s="32">
-        <v>1</v>
-      </c>
-      <c r="O43" s="32">
-        <v>1</v>
-      </c>
-      <c r="P43" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q43" s="32">
-        <v>1</v>
-      </c>
-      <c r="R43" s="32">
-        <v>1</v>
-      </c>
-      <c r="S43" s="32">
-        <v>1</v>
-      </c>
-      <c r="T43" s="32">
-        <v>1</v>
-      </c>
-      <c r="U43" s="32">
-        <v>1</v>
-      </c>
-      <c r="V43" s="32">
-        <v>1</v>
-      </c>
-      <c r="W43" s="32">
-        <v>1</v>
-      </c>
-      <c r="X43" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y43" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG43" s="32">
+      <c r="F43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF43" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG43" s="15">
         <v>1</v>
       </c>
       <c r="AH43" s="33">
@@ -6574,88 +6014,88 @@
       <c r="E44" s="17">
         <v>1</v>
       </c>
-      <c r="F44" s="32">
-        <v>1</v>
-      </c>
-      <c r="G44" s="32">
-        <v>1</v>
-      </c>
-      <c r="H44" s="32">
-        <v>1</v>
-      </c>
-      <c r="I44" s="32">
-        <v>1</v>
-      </c>
-      <c r="J44" s="32">
-        <v>1</v>
-      </c>
-      <c r="K44" s="32">
-        <v>1</v>
-      </c>
-      <c r="L44" s="32">
-        <v>1</v>
-      </c>
-      <c r="M44" s="32">
-        <v>1</v>
-      </c>
-      <c r="N44" s="32">
-        <v>1</v>
-      </c>
-      <c r="O44" s="32">
-        <v>1</v>
-      </c>
-      <c r="P44" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="32">
-        <v>1</v>
-      </c>
-      <c r="R44" s="32">
-        <v>1</v>
-      </c>
-      <c r="S44" s="32">
-        <v>1</v>
-      </c>
-      <c r="T44" s="32">
-        <v>1</v>
-      </c>
-      <c r="U44" s="32">
-        <v>1</v>
-      </c>
-      <c r="V44" s="32">
-        <v>1</v>
-      </c>
-      <c r="W44" s="32">
-        <v>1</v>
-      </c>
-      <c r="X44" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y44" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG44" s="32">
+      <c r="F44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF44" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG44" s="15">
         <v>1</v>
       </c>
       <c r="AH44" s="33">
@@ -6676,88 +6116,88 @@
       <c r="E45" s="17">
         <v>1</v>
       </c>
-      <c r="F45" s="32">
-        <v>1</v>
-      </c>
-      <c r="G45" s="32">
-        <v>1</v>
-      </c>
-      <c r="H45" s="32">
-        <v>1</v>
-      </c>
-      <c r="I45" s="32">
-        <v>1</v>
-      </c>
-      <c r="J45" s="32">
-        <v>1</v>
-      </c>
-      <c r="K45" s="32">
-        <v>1</v>
-      </c>
-      <c r="L45" s="32">
-        <v>1</v>
-      </c>
-      <c r="M45" s="32">
-        <v>1</v>
-      </c>
-      <c r="N45" s="32">
-        <v>1</v>
-      </c>
-      <c r="O45" s="32">
-        <v>1</v>
-      </c>
-      <c r="P45" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q45" s="32">
-        <v>1</v>
-      </c>
-      <c r="R45" s="32">
-        <v>1</v>
-      </c>
-      <c r="S45" s="32">
-        <v>1</v>
-      </c>
-      <c r="T45" s="32">
-        <v>1</v>
-      </c>
-      <c r="U45" s="32">
-        <v>1</v>
-      </c>
-      <c r="V45" s="32">
-        <v>1</v>
-      </c>
-      <c r="W45" s="32">
-        <v>1</v>
-      </c>
-      <c r="X45" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y45" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG45" s="32">
+      <c r="F45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF45" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG45" s="15">
         <v>1</v>
       </c>
       <c r="AH45" s="33">
@@ -6778,88 +6218,88 @@
       <c r="E46" s="17">
         <v>1</v>
       </c>
-      <c r="F46" s="32">
-        <v>1</v>
-      </c>
-      <c r="G46" s="32">
-        <v>1</v>
-      </c>
-      <c r="H46" s="32">
-        <v>1</v>
-      </c>
-      <c r="I46" s="32">
-        <v>1</v>
-      </c>
-      <c r="J46" s="32">
-        <v>1</v>
-      </c>
-      <c r="K46" s="32">
-        <v>1</v>
-      </c>
-      <c r="L46" s="32">
-        <v>1</v>
-      </c>
-      <c r="M46" s="32">
-        <v>1</v>
-      </c>
-      <c r="N46" s="32">
-        <v>1</v>
-      </c>
-      <c r="O46" s="32">
-        <v>1</v>
-      </c>
-      <c r="P46" s="32">
-        <v>1</v>
-      </c>
-      <c r="Q46" s="32">
-        <v>1</v>
-      </c>
-      <c r="R46" s="32">
-        <v>1</v>
-      </c>
-      <c r="S46" s="32">
-        <v>1</v>
-      </c>
-      <c r="T46" s="32">
-        <v>1</v>
-      </c>
-      <c r="U46" s="32">
-        <v>1</v>
-      </c>
-      <c r="V46" s="32">
-        <v>1</v>
-      </c>
-      <c r="W46" s="32">
-        <v>1</v>
-      </c>
-      <c r="X46" s="32">
-        <v>1</v>
-      </c>
-      <c r="Y46" s="32">
-        <v>1</v>
-      </c>
-      <c r="Z46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AB46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="32">
-        <v>1</v>
-      </c>
-      <c r="AG46" s="32">
+      <c r="F46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="H46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="K46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="L46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="O46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="P46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="R46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="S46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="T46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="U46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="X46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Y46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="Z46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AB46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AC46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AE46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AF46" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="AG46" s="15">
         <v>1</v>
       </c>
       <c r="AH46" s="33">
@@ -6878,117 +6318,117 @@
       </c>
       <c r="F47" s="1">
         <f t="shared" si="0"/>
-        <v>330</v>
+        <v>15</v>
       </c>
       <c r="G47" s="1">
         <f t="shared" si="0"/>
-        <v>327</v>
+        <v>18</v>
       </c>
       <c r="H47" s="1">
         <f t="shared" si="0"/>
-        <v>315</v>
+        <v>18</v>
       </c>
       <c r="I47" s="1">
         <f t="shared" si="0"/>
-        <v>300</v>
+        <v>12</v>
       </c>
       <c r="J47" s="1">
         <f t="shared" si="0"/>
-        <v>288</v>
+        <v>24</v>
       </c>
       <c r="K47" s="1">
         <f t="shared" si="0"/>
-        <v>276</v>
+        <v>18</v>
       </c>
       <c r="L47" s="1">
         <f t="shared" si="0"/>
-        <v>264</v>
+        <v>18</v>
       </c>
       <c r="M47" s="1">
         <f t="shared" si="0"/>
-        <v>252</v>
+        <v>33</v>
       </c>
       <c r="N47" s="1">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>42</v>
       </c>
       <c r="O47" s="1">
         <f t="shared" si="0"/>
-        <v>228</v>
+        <v>45</v>
       </c>
       <c r="P47" s="1">
         <f t="shared" si="0"/>
-        <v>216</v>
+        <v>33</v>
       </c>
       <c r="Q47" s="1">
         <f t="shared" si="0"/>
-        <v>204</v>
+        <v>45</v>
       </c>
       <c r="R47" s="1">
         <f t="shared" si="0"/>
-        <v>192</v>
+        <v>33</v>
       </c>
       <c r="S47" s="1">
         <f t="shared" si="0"/>
-        <v>180</v>
+        <v>21</v>
       </c>
       <c r="T47" s="1">
         <f t="shared" si="0"/>
-        <v>168</v>
+        <v>30</v>
       </c>
       <c r="U47" s="1">
         <f t="shared" si="0"/>
-        <v>156</v>
+        <v>42</v>
       </c>
       <c r="V47" s="1">
         <f t="shared" si="0"/>
-        <v>144</v>
+        <v>57</v>
       </c>
       <c r="W47" s="1">
         <f t="shared" si="0"/>
-        <v>132</v>
+        <v>45</v>
       </c>
       <c r="X47" s="1">
         <f t="shared" si="0"/>
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="Y47" s="1">
         <f t="shared" si="0"/>
-        <v>108</v>
+        <v>33</v>
       </c>
       <c r="Z47" s="1">
         <f t="shared" si="0"/>
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="AA47" s="1">
         <f t="shared" si="0"/>
-        <v>84</v>
+        <v>41</v>
       </c>
       <c r="AB47" s="1">
         <f t="shared" si="0"/>
-        <v>72</v>
+        <v>29</v>
       </c>
       <c r="AC47" s="1">
         <f t="shared" si="0"/>
-        <v>60</v>
+        <v>17</v>
       </c>
       <c r="AD47" s="1">
         <f t="shared" si="0"/>
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="AE47" s="1">
         <f t="shared" si="0"/>
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="AF47" s="1">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="AG47" s="1">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="AH47" s="39">
+      <c r="AH47" s="36">
         <v>0</v>
       </c>
     </row>
@@ -7012,8 +6452,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI57"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31:AI31"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7151,7 +6591,7 @@
       <c r="AH1" s="3">
         <v>43434</v>
       </c>
-      <c r="AI1" s="38">
+      <c r="AI1" s="35">
         <v>43112</v>
       </c>
     </row>
@@ -7159,7 +6599,7 @@
       <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="37" t="s">
         <v>13</v>
       </c>
       <c r="C2" s="24" t="s">
@@ -7192,7 +6632,7 @@
       <c r="L2" s="15">
         <v>2</v>
       </c>
-      <c r="M2" s="37">
+      <c r="M2" s="34">
         <v>0</v>
       </c>
       <c r="N2" s="15">
@@ -7266,7 +6706,7 @@
       <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="35"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="24" t="s">
         <v>22</v>
       </c>
@@ -7291,7 +6731,7 @@
       <c r="J3" s="15">
         <v>2</v>
       </c>
-      <c r="K3" s="37">
+      <c r="K3" s="34">
         <v>0</v>
       </c>
       <c r="L3" s="15">
@@ -7371,7 +6811,7 @@
       <c r="A4" s="16">
         <v>3</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="24" t="s">
         <v>41</v>
       </c>
@@ -7379,10 +6819,10 @@
         <v>62</v>
       </c>
       <c r="E4" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F4" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G4" s="15">
         <v>8</v>
@@ -7393,7 +6833,7 @@
       <c r="I4" s="15">
         <v>4</v>
       </c>
-      <c r="J4" s="37">
+      <c r="J4" s="34">
         <v>0</v>
       </c>
       <c r="K4" s="15">
@@ -7476,23 +6916,23 @@
       <c r="A5" s="16">
         <v>4</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="D5" s="25" t="s">
-        <v>63</v>
+      <c r="D5" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E5" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G5" s="15">
         <v>2</v>
       </c>
-      <c r="H5" s="37">
+      <c r="H5" s="34">
         <v>0</v>
       </c>
       <c r="I5" s="15">
@@ -7581,18 +7021,18 @@
       <c r="A6" s="16">
         <v>5</v>
       </c>
-      <c r="B6" s="36"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="25" t="s">
-        <v>63</v>
+      <c r="D6" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E6" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G6" s="15">
         <v>2</v>
@@ -7612,7 +7052,7 @@
       <c r="L6" s="15">
         <v>2</v>
       </c>
-      <c r="M6" s="37">
+      <c r="M6" s="34">
         <v>0</v>
       </c>
       <c r="N6" s="15">
@@ -7686,14 +7126,14 @@
       <c r="A7" s="16">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
+      <c r="B7" s="37" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="27" t="s">
-        <v>63</v>
+      <c r="D7" s="25" t="s">
+        <v>62</v>
       </c>
       <c r="E7" s="32">
         <v>9</v>
@@ -7725,7 +7165,7 @@
       <c r="N7" s="15">
         <v>1</v>
       </c>
-      <c r="O7" s="37">
+      <c r="O7" s="34">
         <v>0</v>
       </c>
       <c r="P7" s="15">
@@ -7793,23 +7233,23 @@
       <c r="A8" s="16">
         <v>7</v>
       </c>
-      <c r="B8" s="35"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="24" t="s">
         <v>48</v>
       </c>
       <c r="D8" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E8" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G8" s="15">
         <v>2</v>
       </c>
-      <c r="H8" s="37">
+      <c r="H8" s="34">
         <v>0</v>
       </c>
       <c r="I8" s="15">
@@ -7898,18 +7338,18 @@
       <c r="A9" s="16">
         <v>8</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="39"/>
       <c r="C9" s="24" t="s">
         <v>49</v>
       </c>
       <c r="D9" s="27" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E9" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G9" s="15">
         <v>2</v>
@@ -7935,7 +7375,7 @@
       <c r="N9" s="15">
         <v>2</v>
       </c>
-      <c r="O9" s="37">
+      <c r="O9" s="34">
         <v>0</v>
       </c>
       <c r="P9" s="15">
@@ -8003,7 +7443,7 @@
       <c r="A10" s="16">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="37" t="s">
         <v>15</v>
       </c>
       <c r="C10" s="24" t="s">
@@ -8013,10 +7453,10 @@
         <v>64</v>
       </c>
       <c r="E10" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="32">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="G10" s="15">
         <v>8</v>
@@ -8039,7 +7479,7 @@
       <c r="M10" s="15">
         <v>1</v>
       </c>
-      <c r="N10" s="37">
+      <c r="N10" s="34">
         <v>0</v>
       </c>
       <c r="O10" s="15">
@@ -8110,7 +7550,7 @@
       <c r="A11" s="16">
         <v>10</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="24" t="s">
         <v>24</v>
       </c>
@@ -8215,7 +7655,7 @@
       <c r="A12" s="16">
         <v>11</v>
       </c>
-      <c r="B12" s="35"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="24" t="s">
         <v>42</v>
       </c>
@@ -8309,7 +7749,7 @@
       <c r="AG12" s="15">
         <v>2</v>
       </c>
-      <c r="AH12" s="37">
+      <c r="AH12" s="34">
         <v>0</v>
       </c>
       <c r="AI12" s="15">
@@ -8320,7 +7760,7 @@
       <c r="A13" s="16">
         <v>12</v>
       </c>
-      <c r="B13" s="35"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="29" t="s">
         <v>43</v>
       </c>
@@ -8328,10 +7768,10 @@
         <v>64</v>
       </c>
       <c r="E13" s="32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F13" s="32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G13" s="15">
         <v>18</v>
@@ -8411,7 +7851,7 @@
       <c r="AF13" s="15">
         <v>4</v>
       </c>
-      <c r="AG13" s="37">
+      <c r="AG13" s="34">
         <v>0</v>
       </c>
       <c r="AH13" s="15">
@@ -8425,18 +7865,18 @@
       <c r="A14" s="16">
         <v>13</v>
       </c>
-      <c r="B14" s="35"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>65</v>
+      <c r="D14" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E14" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G14" s="15">
         <v>2</v>
@@ -8444,7 +7884,7 @@
       <c r="H14" s="15">
         <v>2</v>
       </c>
-      <c r="I14" s="37">
+      <c r="I14" s="34">
         <v>0</v>
       </c>
       <c r="J14" s="15">
@@ -8530,18 +7970,18 @@
       <c r="A15" s="16">
         <v>14</v>
       </c>
-      <c r="B15" s="36"/>
+      <c r="B15" s="39"/>
       <c r="C15" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>65</v>
+      <c r="D15" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E15" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G15" s="15">
         <v>2</v>
@@ -8627,7 +8067,7 @@
       <c r="AH15" s="15">
         <v>2</v>
       </c>
-      <c r="AI15" s="37">
+      <c r="AI15" s="34">
         <v>0</v>
       </c>
     </row>
@@ -8635,7 +8075,7 @@
       <c r="A16" s="16">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="37" t="s">
         <v>16</v>
       </c>
       <c r="C16" s="29" t="s">
@@ -8645,10 +8085,10 @@
         <v>62</v>
       </c>
       <c r="E16" s="32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F16" s="32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G16" s="15">
         <v>12</v>
@@ -8742,7 +8182,7 @@
       <c r="A17" s="16">
         <v>16</v>
       </c>
-      <c r="B17" s="35"/>
+      <c r="B17" s="38"/>
       <c r="C17" s="29" t="s">
         <v>26</v>
       </c>
@@ -8750,10 +8190,10 @@
         <v>62</v>
       </c>
       <c r="E17" s="32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="F17" s="32">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="G17" s="15">
         <v>10</v>
@@ -8847,7 +8287,7 @@
       <c r="A18" s="16">
         <v>17</v>
       </c>
-      <c r="B18" s="35"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="29" t="s">
         <v>27</v>
       </c>
@@ -8952,7 +8392,7 @@
       <c r="A19" s="16">
         <v>18</v>
       </c>
-      <c r="B19" s="35"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="29" t="s">
         <v>28</v>
       </c>
@@ -8960,10 +8400,10 @@
         <v>62</v>
       </c>
       <c r="E19" s="32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F19" s="32">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G19" s="15">
         <v>20</v>
@@ -9043,13 +8483,13 @@
       <c r="AF19" s="15">
         <v>4</v>
       </c>
-      <c r="AG19" s="37">
-        <v>0</v>
-      </c>
-      <c r="AH19" s="37">
-        <v>0</v>
-      </c>
-      <c r="AI19" s="37">
+      <c r="AG19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="34">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="34">
         <v>0</v>
       </c>
     </row>
@@ -9057,18 +8497,18 @@
       <c r="A20" s="16">
         <v>19</v>
       </c>
-      <c r="B20" s="35"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="24" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="25" t="s">
+      <c r="D20" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E20" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G20" s="15">
         <v>2</v>
@@ -9162,18 +8602,18 @@
       <c r="A21" s="16">
         <v>20</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D21" s="25" t="s">
+      <c r="D21" s="15" t="s">
         <v>65</v>
       </c>
       <c r="E21" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G21" s="15">
         <v>2</v>
@@ -9267,7 +8707,7 @@
       <c r="A22" s="16">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="37" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="29" t="s">
@@ -9277,10 +8717,10 @@
         <v>64</v>
       </c>
       <c r="E22" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="F22" s="32">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G22" s="15">
         <v>8</v>
@@ -9374,7 +8814,7 @@
       <c r="A23" s="16">
         <v>22</v>
       </c>
-      <c r="B23" s="35"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="29" t="s">
         <v>34</v>
       </c>
@@ -9382,10 +8822,10 @@
         <v>64</v>
       </c>
       <c r="E23" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" s="32">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G23" s="15">
         <v>8</v>
@@ -9479,7 +8919,7 @@
       <c r="A24" s="16">
         <v>23</v>
       </c>
-      <c r="B24" s="35"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="30" t="s">
         <v>36</v>
       </c>
@@ -9487,10 +8927,10 @@
         <v>64</v>
       </c>
       <c r="E24" s="32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F24" s="32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G24" s="15">
         <v>14</v>
@@ -9584,7 +9024,7 @@
       <c r="A25" s="16">
         <v>24</v>
       </c>
-      <c r="B25" s="35"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="30" t="s">
         <v>37</v>
       </c>
@@ -9592,10 +9032,10 @@
         <v>64</v>
       </c>
       <c r="E25" s="32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F25" s="32">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G25" s="15">
         <v>15</v>
@@ -9689,7 +9129,7 @@
       <c r="A26" s="16">
         <v>25</v>
       </c>
-      <c r="B26" s="35"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="24" t="s">
         <v>54</v>
       </c>
@@ -9697,10 +9137,10 @@
         <v>65</v>
       </c>
       <c r="E26" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F26" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G26" s="15">
         <v>2</v>
@@ -9794,7 +9234,7 @@
       <c r="A27" s="16">
         <v>26</v>
       </c>
-      <c r="B27" s="36"/>
+      <c r="B27" s="39"/>
       <c r="C27" s="24" t="s">
         <v>55</v>
       </c>
@@ -9802,10 +9242,10 @@
         <v>65</v>
       </c>
       <c r="E27" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G27" s="15">
         <v>2</v>
@@ -9899,7 +9339,7 @@
       <c r="A28" s="16">
         <v>27</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="37" t="s">
         <v>17</v>
       </c>
       <c r="C28" s="29" t="s">
@@ -9909,10 +9349,10 @@
         <v>64</v>
       </c>
       <c r="E28" s="32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F28" s="32">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="G28" s="15">
         <v>15</v>
@@ -9977,7 +9417,7 @@
       <c r="AA28" s="15">
         <v>4</v>
       </c>
-      <c r="AB28" s="37">
+      <c r="AB28" s="34">
         <v>0</v>
       </c>
       <c r="AC28" s="14">
@@ -10006,7 +9446,7 @@
       <c r="A29" s="16">
         <v>28</v>
       </c>
-      <c r="B29" s="35"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="29" t="s">
         <v>39</v>
       </c>
@@ -10014,10 +9454,10 @@
         <v>64</v>
       </c>
       <c r="E29" s="32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="F29" s="32">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="G29" s="15">
         <v>18</v>
@@ -10100,7 +9540,7 @@
       <c r="AG29" s="15">
         <v>2</v>
       </c>
-      <c r="AH29" s="37">
+      <c r="AH29" s="34">
         <v>0</v>
       </c>
       <c r="AI29" s="14">
@@ -10111,7 +9551,7 @@
       <c r="A30" s="16">
         <v>29</v>
       </c>
-      <c r="B30" s="35"/>
+      <c r="B30" s="38"/>
       <c r="C30" s="29" t="s">
         <v>40</v>
       </c>
@@ -10119,10 +9559,10 @@
         <v>64</v>
       </c>
       <c r="E30" s="32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="F30" s="32">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G30" s="15">
         <v>18</v>
@@ -10216,18 +9656,18 @@
       <c r="A31" s="16">
         <v>30</v>
       </c>
-      <c r="B31" s="35"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="D31" s="28" t="s">
-        <v>64</v>
+      <c r="D31" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E31" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G31" s="15">
         <v>2</v>
@@ -10238,7 +9678,7 @@
       <c r="I31" s="15">
         <v>2</v>
       </c>
-      <c r="J31" s="37">
+      <c r="J31" s="34">
         <v>0</v>
       </c>
       <c r="K31" s="15">
@@ -10321,18 +9761,18 @@
       <c r="A32" s="16">
         <v>31</v>
       </c>
-      <c r="B32" s="36"/>
+      <c r="B32" s="39"/>
       <c r="C32" s="24" t="s">
         <v>57</v>
       </c>
-      <c r="D32" s="28" t="s">
-        <v>64</v>
+      <c r="D32" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E32" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F32" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G32" s="15">
         <v>2</v>
@@ -10426,7 +9866,7 @@
       <c r="A33" s="16">
         <v>32</v>
       </c>
-      <c r="B33" s="34" t="s">
+      <c r="B33" s="37" t="s">
         <v>18</v>
       </c>
       <c r="C33" s="29" t="s">
@@ -10436,10 +9876,10 @@
         <v>65</v>
       </c>
       <c r="E33" s="32">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F33" s="32">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="G33" s="15">
         <v>9</v>
@@ -10533,7 +9973,7 @@
       <c r="A34" s="16">
         <v>33</v>
       </c>
-      <c r="B34" s="35"/>
+      <c r="B34" s="38"/>
       <c r="C34" s="29" t="s">
         <v>31</v>
       </c>
@@ -10541,10 +9981,10 @@
         <v>65</v>
       </c>
       <c r="E34" s="32">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="F34" s="32">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="G34" s="15">
         <v>6</v>
@@ -10638,18 +10078,18 @@
       <c r="A35" s="16">
         <v>34</v>
       </c>
-      <c r="B35" s="35"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="D35" s="15" t="s">
-        <v>65</v>
+      <c r="D35" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E35" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F35" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G35" s="15">
         <v>2</v>
@@ -10743,18 +10183,18 @@
       <c r="A36" s="16">
         <v>35</v>
       </c>
-      <c r="B36" s="36"/>
+      <c r="B36" s="39"/>
       <c r="C36" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="D36" s="15" t="s">
-        <v>65</v>
+      <c r="D36" s="27" t="s">
+        <v>63</v>
       </c>
       <c r="E36" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F36" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G36" s="15">
         <v>2</v>
@@ -10848,7 +10288,7 @@
       <c r="A37" s="16">
         <v>36</v>
       </c>
-      <c r="B37" s="34" t="s">
+      <c r="B37" s="37" t="s">
         <v>19</v>
       </c>
       <c r="C37" s="29" t="s">
@@ -10858,10 +10298,10 @@
         <v>63</v>
       </c>
       <c r="E37" s="32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F37" s="32">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G37" s="15">
         <v>12</v>
@@ -10955,7 +10395,7 @@
       <c r="A38" s="16">
         <v>37</v>
       </c>
-      <c r="B38" s="35"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="29" t="s">
         <v>33</v>
       </c>
@@ -11060,7 +10500,7 @@
       <c r="A39" s="16">
         <v>38</v>
       </c>
-      <c r="B39" s="35"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="31" t="s">
         <v>45</v>
       </c>
@@ -11068,10 +10508,10 @@
         <v>63</v>
       </c>
       <c r="E39" s="32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F39" s="32">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="G39" s="15">
         <v>18</v>
@@ -11165,7 +10605,7 @@
       <c r="A40" s="16">
         <v>39</v>
       </c>
-      <c r="B40" s="35"/>
+      <c r="B40" s="38"/>
       <c r="C40" s="15" t="s">
         <v>44</v>
       </c>
@@ -11173,10 +10613,10 @@
         <v>63</v>
       </c>
       <c r="E40" s="32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F40" s="32">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G40" s="15">
         <v>14</v>
@@ -11270,18 +10710,18 @@
       <c r="A41" s="16">
         <v>40</v>
       </c>
-      <c r="B41" s="35"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D41" s="27" t="s">
-        <v>63</v>
+      <c r="D41" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E41" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G41" s="15">
         <v>2</v>
@@ -11375,18 +10815,18 @@
       <c r="A42" s="16">
         <v>41</v>
       </c>
-      <c r="B42" s="36"/>
+      <c r="B42" s="39"/>
       <c r="C42" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="D42" s="27" t="s">
-        <v>63</v>
+      <c r="D42" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="E42" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" s="32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G42" s="15">
         <v>2</v>
@@ -11490,7 +10930,7 @@
       <c r="E43" s="32">
         <v>1</v>
       </c>
-      <c r="F43" s="18">
+      <c r="F43" s="32">
         <v>1</v>
       </c>
       <c r="G43" s="32">
@@ -11595,7 +11035,7 @@
       <c r="E44" s="32">
         <v>1</v>
       </c>
-      <c r="F44" s="18">
+      <c r="F44" s="32">
         <v>1</v>
       </c>
       <c r="G44" s="32">
@@ -11697,10 +11137,10 @@
       <c r="D45" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E45" s="17">
-        <v>1</v>
-      </c>
-      <c r="F45" s="18">
+      <c r="E45" s="32">
+        <v>1</v>
+      </c>
+      <c r="F45" s="32">
         <v>1</v>
       </c>
       <c r="G45" s="32">
@@ -11802,10 +11242,10 @@
       <c r="D46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E46" s="17">
-        <v>1</v>
-      </c>
-      <c r="F46" s="18">
+      <c r="E46" s="32">
+        <v>1</v>
+      </c>
+      <c r="F46" s="32">
         <v>1</v>
       </c>
       <c r="G46" s="32">
